--- a/JupyterNotebooks/AvgHW/Gamma1F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -737,25 +629,25 @@
         <v>1.000186220696273</v>
       </c>
       <c r="D3">
-        <v>0.999255119046439</v>
+        <v>1.000496588770302</v>
       </c>
       <c r="E3">
-        <v>1.000186220696273</v>
+        <v>0.9995903142823279</v>
       </c>
       <c r="F3">
         <v>1.000186220696273</v>
       </c>
       <c r="G3">
-        <v>1.000496588770302</v>
+        <v>1.000186220696273</v>
       </c>
       <c r="H3">
-        <v>0.9995903142823279</v>
+        <v>0.999255119046439</v>
       </c>
       <c r="I3">
+        <v>0.999255119046439</v>
+      </c>
+      <c r="J3">
         <v>1.000186220696273</v>
-      </c>
-      <c r="J3">
-        <v>0.999255119046439</v>
       </c>
       <c r="K3">
         <v>1.000186220696273</v>
@@ -779,16 +671,16 @@
         <v>0.9998758534796615</v>
       </c>
       <c r="R3">
-        <v>0.9999534452838144</v>
+        <v>0.9999534452838142</v>
       </c>
       <c r="S3">
-        <v>0.9999534452838144</v>
+        <v>0.9999534452838142</v>
       </c>
       <c r="T3">
         <v>0.9999834473646478</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -799,25 +691,25 @@
         <v>1.000359495711253</v>
       </c>
       <c r="D4">
-        <v>0.9985620162466361</v>
+        <v>1.000958658147354</v>
       </c>
       <c r="E4">
-        <v>1.000359495711253</v>
+        <v>0.9992091084844512</v>
       </c>
       <c r="F4">
         <v>1.000359495711253</v>
       </c>
       <c r="G4">
-        <v>1.000958658147354</v>
+        <v>1.000359495711253</v>
       </c>
       <c r="H4">
-        <v>0.9992091084844512</v>
+        <v>0.9985620162466361</v>
       </c>
       <c r="I4">
+        <v>0.9985620162466361</v>
+      </c>
+      <c r="J4">
         <v>1.000359495711253</v>
-      </c>
-      <c r="J4">
-        <v>0.9985620162466361</v>
       </c>
       <c r="K4">
         <v>1.000359495711253</v>
@@ -850,7 +742,7 @@
         <v>0.9999680450020335</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -861,25 +753,25 @@
         <v>1.000688934744178</v>
       </c>
       <c r="D5">
-        <v>0.9972442801492186</v>
+        <v>1.001837143322659</v>
       </c>
       <c r="E5">
-        <v>1.000688934744178</v>
+        <v>0.9984843550807377</v>
       </c>
       <c r="F5">
         <v>1.000688934744178</v>
       </c>
       <c r="G5">
-        <v>1.001837143322659</v>
+        <v>1.000688934744178</v>
       </c>
       <c r="H5">
-        <v>0.9984843550807377</v>
+        <v>0.9972442801492186</v>
       </c>
       <c r="I5">
+        <v>0.9972442801492186</v>
+      </c>
+      <c r="J5">
         <v>1.000688934744178</v>
-      </c>
-      <c r="J5">
-        <v>0.9972442801492186</v>
       </c>
       <c r="K5">
         <v>1.000688934744178</v>
@@ -912,7 +804,7 @@
         <v>0.9999387637975247</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -923,25 +815,25 @@
         <v>1.001010433745963</v>
       </c>
       <c r="D6">
-        <v>0.9959582377523093</v>
+        <v>1.002694509964751</v>
       </c>
       <c r="E6">
-        <v>1.001010433745963</v>
+        <v>0.9977770334652303</v>
       </c>
       <c r="F6">
         <v>1.001010433745963</v>
       </c>
       <c r="G6">
-        <v>1.002694509964751</v>
+        <v>1.001010433745963</v>
       </c>
       <c r="H6">
-        <v>0.9977770334652303</v>
+        <v>0.9959582377523093</v>
       </c>
       <c r="I6">
+        <v>0.9959582377523093</v>
+      </c>
+      <c r="J6">
         <v>1.001010433745963</v>
-      </c>
-      <c r="J6">
-        <v>0.9959582377523093</v>
       </c>
       <c r="K6">
         <v>1.001010433745963</v>
@@ -974,7 +866,7 @@
         <v>0.9999101804033631</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,25 +877,25 @@
         <v>1.000013276889647</v>
       </c>
       <c r="D7">
-        <v>0.9999468952416058</v>
+        <v>1.00003540446517</v>
       </c>
       <c r="E7">
-        <v>1.000013276889647</v>
+        <v>0.9999707914599549</v>
       </c>
       <c r="F7">
         <v>1.000013276889647</v>
       </c>
       <c r="G7">
-        <v>1.00003540446517</v>
+        <v>1.000013276889647</v>
       </c>
       <c r="H7">
-        <v>0.9999707914599549</v>
+        <v>0.9999468952416061</v>
       </c>
       <c r="I7">
+        <v>0.9999468952416061</v>
+      </c>
+      <c r="J7">
         <v>1.000013276889647</v>
-      </c>
-      <c r="J7">
-        <v>0.9999468952416058</v>
       </c>
       <c r="K7">
         <v>1.000013276889647</v>
@@ -1036,7 +928,7 @@
         <v>0.9999988203059454</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1047,25 +939,25 @@
         <v>1.000033839275384</v>
       </c>
       <c r="D8">
-        <v>0.9998646451299625</v>
+        <v>1.000090237688475</v>
       </c>
       <c r="E8">
-        <v>1.000033839275384</v>
+        <v>0.9999255538080086</v>
       </c>
       <c r="F8">
         <v>1.000033839275384</v>
       </c>
       <c r="G8">
-        <v>1.000090237688475</v>
+        <v>1.000033839275384</v>
       </c>
       <c r="H8">
-        <v>0.9999255538080084</v>
+        <v>0.9998646451299626</v>
       </c>
       <c r="I8">
+        <v>0.9998646451299626</v>
+      </c>
+      <c r="J8">
         <v>1.000033839275384</v>
-      </c>
-      <c r="J8">
-        <v>0.9998646451299625</v>
       </c>
       <c r="K8">
         <v>1.000033839275384</v>
@@ -1098,7 +990,7 @@
         <v>0.9999969924087666</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1109,25 +1001,25 @@
         <v>1.000047379367409</v>
       </c>
       <c r="D9">
-        <v>0.9998104834913281</v>
+        <v>1.000126345535558</v>
       </c>
       <c r="E9">
-        <v>1.000047379367409</v>
+        <v>0.9998957656734142</v>
       </c>
       <c r="F9">
         <v>1.000047379367409</v>
       </c>
       <c r="G9">
-        <v>1.000126345535558</v>
+        <v>1.000047379367409</v>
       </c>
       <c r="H9">
-        <v>0.9998957656734142</v>
+        <v>0.9998104834913281</v>
       </c>
       <c r="I9">
+        <v>0.9998104834913281</v>
+      </c>
+      <c r="J9">
         <v>1.000047379367409</v>
-      </c>
-      <c r="J9">
-        <v>0.9998104834913281</v>
       </c>
       <c r="K9">
         <v>1.000047379367409</v>
@@ -1160,7 +1052,7 @@
         <v>0.9999957888004213</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1171,25 +1063,25 @@
         <v>1.000102161672891</v>
       </c>
       <c r="D10">
-        <v>0.9995913560484081</v>
+        <v>1.000272430121526</v>
       </c>
       <c r="E10">
-        <v>1.000102161672891</v>
+        <v>0.9997752447787634</v>
       </c>
       <c r="F10">
         <v>1.000102161672891</v>
       </c>
       <c r="G10">
-        <v>1.000272430121526</v>
+        <v>1.000102161672891</v>
       </c>
       <c r="H10">
-        <v>0.9997752447787634</v>
+        <v>0.9995913560484081</v>
       </c>
       <c r="I10">
+        <v>0.9995913560484081</v>
+      </c>
+      <c r="J10">
         <v>1.000102161672891</v>
-      </c>
-      <c r="J10">
-        <v>0.9995913560484081</v>
       </c>
       <c r="K10">
         <v>1.000102161672891</v>
@@ -1222,7 +1114,7 @@
         <v>0.999990919327895</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1233,25 +1125,25 @@
         <v>1.000169459552945</v>
       </c>
       <c r="D11">
-        <v>0.9993221570010005</v>
+        <v>1.000451894798128</v>
       </c>
       <c r="E11">
-        <v>1.000169459552945</v>
+        <v>0.9996271852805241</v>
       </c>
       <c r="F11">
         <v>1.000169459552945</v>
       </c>
       <c r="G11">
-        <v>1.000451894798128</v>
+        <v>1.000169459552945</v>
       </c>
       <c r="H11">
-        <v>0.9996271852805241</v>
+        <v>0.9993221570010005</v>
       </c>
       <c r="I11">
+        <v>0.9993221570010005</v>
+      </c>
+      <c r="J11">
         <v>1.000169459552945</v>
-      </c>
-      <c r="J11">
-        <v>0.9993221570010005</v>
       </c>
       <c r="K11">
         <v>1.000169459552945</v>
@@ -1284,7 +1176,7 @@
         <v>0.9999849359564145</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1295,25 +1187,25 @@
         <v>0.9984980665675514</v>
       </c>
       <c r="D12">
-        <v>1.006007732561564</v>
+        <v>0.995994846893131</v>
       </c>
       <c r="E12">
-        <v>0.9984980665675514</v>
+        <v>1.003304252380399</v>
       </c>
       <c r="F12">
         <v>0.9984980665675514</v>
       </c>
       <c r="G12">
-        <v>0.9959948468931308</v>
+        <v>0.9984980665675514</v>
       </c>
       <c r="H12">
-        <v>1.003304252380399</v>
+        <v>1.006007732561564</v>
       </c>
       <c r="I12">
+        <v>1.006007732561564</v>
+      </c>
+      <c r="J12">
         <v>0.9984980665675514</v>
-      </c>
-      <c r="J12">
-        <v>1.006007732561564</v>
       </c>
       <c r="K12">
         <v>0.9984980665675514</v>
@@ -1346,7 +1238,7 @@
         <v>1.000133505256291</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1357,25 +1249,25 @@
         <v>0.9996122236349583</v>
       </c>
       <c r="D13">
-        <v>1.001551118814635</v>
+        <v>0.9989659182172428</v>
       </c>
       <c r="E13">
-        <v>0.9996122236349583</v>
+        <v>1.000853110027781</v>
       </c>
       <c r="F13">
         <v>0.9996122236349583</v>
       </c>
       <c r="G13">
-        <v>0.9989659182172428</v>
+        <v>0.9996122236349583</v>
       </c>
       <c r="H13">
-        <v>1.000853110027781</v>
+        <v>1.001551118814635</v>
       </c>
       <c r="I13">
+        <v>1.001551118814635</v>
+      </c>
+      <c r="J13">
         <v>0.9996122236349583</v>
-      </c>
-      <c r="J13">
-        <v>1.001551118814635</v>
       </c>
       <c r="K13">
         <v>0.9996122236349583</v>
@@ -1408,7 +1300,7 @@
         <v>1.000034469660756</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1419,25 +1311,25 @@
         <v>0.9984981641398782</v>
       </c>
       <c r="D14">
-        <v>1.006007306339125</v>
+        <v>0.9959951328860016</v>
       </c>
       <c r="E14">
-        <v>0.9984981641398782</v>
+        <v>1.003304018664318</v>
       </c>
       <c r="F14">
         <v>0.9984981641398782</v>
       </c>
       <c r="G14">
-        <v>0.9959951328860016</v>
+        <v>0.9984981641398782</v>
       </c>
       <c r="H14">
-        <v>1.003304018664318</v>
+        <v>1.006007306339125</v>
       </c>
       <c r="I14">
+        <v>1.006007306339125</v>
+      </c>
+      <c r="J14">
         <v>0.9984981641398782</v>
-      </c>
-      <c r="J14">
-        <v>1.006007306339125</v>
       </c>
       <c r="K14">
         <v>0.9984981641398782</v>
@@ -1470,7 +1362,7 @@
         <v>1.00013349171818</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1481,25 +1373,25 @@
         <v>0.9996122454127948</v>
       </c>
       <c r="D15">
-        <v>1.001551005564818</v>
+        <v>0.9989659978780547</v>
       </c>
       <c r="E15">
-        <v>0.9996122454127948</v>
+        <v>1.00085305578587</v>
       </c>
       <c r="F15">
         <v>0.9996122454127948</v>
       </c>
       <c r="G15">
-        <v>0.9989659978780547</v>
+        <v>0.9996122454127948</v>
       </c>
       <c r="H15">
-        <v>1.00085305578587</v>
+        <v>1.001551005564818</v>
       </c>
       <c r="I15">
+        <v>1.001551005564818</v>
+      </c>
+      <c r="J15">
         <v>0.9996122454127948</v>
-      </c>
-      <c r="J15">
-        <v>1.001551005564818</v>
       </c>
       <c r="K15">
         <v>0.9996122454127948</v>
@@ -1532,7 +1424,7 @@
         <v>1.000034465911188</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000769575537</v>
+        <v>1.003632228115505</v>
       </c>
       <c r="D16">
-        <v>0.9999969241962289</v>
+        <v>1.009685944633092</v>
       </c>
       <c r="E16">
-        <v>1.000000769575537</v>
+        <v>0.992009099623428</v>
       </c>
       <c r="F16">
-        <v>1.000000769575537</v>
+        <v>1.003632228115505</v>
       </c>
       <c r="G16">
-        <v>1.000002051973211</v>
+        <v>1.003632228115505</v>
       </c>
       <c r="H16">
-        <v>0.9999983073680063</v>
+        <v>0.9854710904915405</v>
       </c>
       <c r="I16">
-        <v>1.000000769575537</v>
+        <v>0.9854710904915405</v>
       </c>
       <c r="J16">
-        <v>0.9999969241962289</v>
+        <v>1.003632228115505</v>
       </c>
       <c r="K16">
-        <v>1.000000769575537</v>
+        <v>1.003632228115505</v>
       </c>
       <c r="L16">
-        <v>1.000000769575537</v>
+        <v>1.003632228115505</v>
       </c>
       <c r="M16">
-        <v>0.9999988468858829</v>
+        <v>0.9945516593035229</v>
       </c>
       <c r="N16">
-        <v>0.9999988468858829</v>
+        <v>0.9945516593035229</v>
       </c>
       <c r="O16">
-        <v>0.9999986670465907</v>
+        <v>0.9937041394101579</v>
       </c>
       <c r="P16">
-        <v>0.9999994877824343</v>
+        <v>0.9975785155741836</v>
       </c>
       <c r="Q16">
-        <v>0.9999994877824343</v>
+        <v>0.9975785155741836</v>
       </c>
       <c r="R16">
-        <v>0.99999980823071</v>
+        <v>0.999091943709514</v>
       </c>
       <c r="S16">
-        <v>0.99999980823071</v>
+        <v>0.999091943709514</v>
       </c>
       <c r="T16">
-        <v>0.9999999320440095</v>
+        <v>0.9996771365157627</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000016285896783</v>
+        <v>1.00297223705002</v>
       </c>
       <c r="D17">
-        <v>0.9999348589274861</v>
+        <v>1.007925963976742</v>
       </c>
       <c r="E17">
-        <v>1.000016285896783</v>
+        <v>0.9934610820502473</v>
       </c>
       <c r="F17">
-        <v>1.000016285896783</v>
+        <v>1.00297223705002</v>
       </c>
       <c r="G17">
-        <v>1.00004342935799</v>
+        <v>1.00297223705002</v>
       </c>
       <c r="H17">
-        <v>0.99996417135028</v>
+        <v>0.9881110589038758</v>
       </c>
       <c r="I17">
-        <v>1.000016285896783</v>
+        <v>0.9881110589038758</v>
       </c>
       <c r="J17">
-        <v>0.9999348589274861</v>
+        <v>1.00297223705002</v>
       </c>
       <c r="K17">
-        <v>1.000016285896783</v>
+        <v>1.00297223705002</v>
       </c>
       <c r="L17">
-        <v>1.000016285896783</v>
+        <v>1.00297223705002</v>
       </c>
       <c r="M17">
-        <v>0.9999755724121346</v>
+        <v>0.9955416479769477</v>
       </c>
       <c r="N17">
-        <v>0.9999755724121346</v>
+        <v>0.9955416479769477</v>
       </c>
       <c r="O17">
-        <v>0.9999717720581831</v>
+        <v>0.994848126001381</v>
       </c>
       <c r="P17">
-        <v>0.9999891435736842</v>
+        <v>0.998018511001305</v>
       </c>
       <c r="Q17">
-        <v>0.9999891435736842</v>
+        <v>0.998018511001305</v>
       </c>
       <c r="R17">
-        <v>0.9999959291544589</v>
+        <v>0.9992569425134836</v>
       </c>
       <c r="S17">
-        <v>0.9999959291544589</v>
+        <v>0.9992569425134836</v>
       </c>
       <c r="T17">
-        <v>0.9999985528876842</v>
+        <v>0.9997358026801538</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000057337185809</v>
+        <v>1.001645131292946</v>
       </c>
       <c r="D18">
-        <v>0.9997706566496875</v>
+        <v>1.004387009010195</v>
       </c>
       <c r="E18">
-        <v>1.000057337185809</v>
+        <v>0.996380718309807</v>
       </c>
       <c r="F18">
-        <v>1.000057337185809</v>
+        <v>1.001645131292946</v>
       </c>
       <c r="G18">
-        <v>1.000152898470507</v>
+        <v>1.001645131292946</v>
       </c>
       <c r="H18">
-        <v>0.9998738614954837</v>
+        <v>0.9934194870151687</v>
       </c>
       <c r="I18">
-        <v>1.000057337185809</v>
+        <v>0.9934194870151687</v>
       </c>
       <c r="J18">
-        <v>0.9997706566496875</v>
+        <v>1.001645131292946</v>
       </c>
       <c r="K18">
-        <v>1.000057337185809</v>
+        <v>1.001645131292946</v>
       </c>
       <c r="L18">
-        <v>1.000057337185809</v>
+        <v>1.001645131292946</v>
       </c>
       <c r="M18">
-        <v>0.9999139969177484</v>
+        <v>0.9975323091540574</v>
       </c>
       <c r="N18">
-        <v>0.9999139969177484</v>
+        <v>0.9975323091540574</v>
       </c>
       <c r="O18">
-        <v>0.9999006184436602</v>
+        <v>0.9971484455393073</v>
       </c>
       <c r="P18">
-        <v>0.9999617770071021</v>
+        <v>0.9989032498670204</v>
       </c>
       <c r="Q18">
-        <v>0.9999617770071021</v>
+        <v>0.9989032498670204</v>
       </c>
       <c r="R18">
-        <v>0.9999856670517789</v>
+        <v>0.9995887202235019</v>
       </c>
       <c r="S18">
-        <v>0.9999856670517789</v>
+        <v>0.9995887202235019</v>
       </c>
       <c r="T18">
-        <v>0.999994904695518</v>
+        <v>0.9998537680356682</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,58 +1618,306 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.001795852862132</v>
+      </c>
+      <c r="D19">
+        <v>1.004788923640935</v>
+      </c>
+      <c r="E19">
+        <v>0.9960491349023838</v>
+      </c>
+      <c r="F19">
+        <v>1.001795852862132</v>
+      </c>
+      <c r="G19">
+        <v>1.001795852862132</v>
+      </c>
+      <c r="H19">
+        <v>0.9928166135872998</v>
+      </c>
+      <c r="I19">
+        <v>0.9928166135872998</v>
+      </c>
+      <c r="J19">
+        <v>1.001795852862132</v>
+      </c>
+      <c r="K19">
+        <v>1.001795852862132</v>
+      </c>
+      <c r="L19">
+        <v>1.001795852862132</v>
+      </c>
+      <c r="M19">
+        <v>0.9973062332247161</v>
+      </c>
+      <c r="N19">
+        <v>0.9973062332247161</v>
+      </c>
+      <c r="O19">
+        <v>0.9968872004506054</v>
+      </c>
+      <c r="P19">
+        <v>0.9988027731038548</v>
+      </c>
+      <c r="Q19">
+        <v>0.9988027731038548</v>
+      </c>
+      <c r="R19">
+        <v>0.9995510430434242</v>
+      </c>
+      <c r="S19">
+        <v>0.9995510430434242</v>
+      </c>
+      <c r="T19">
+        <v>0.9998403717861692</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000000769575537</v>
+      </c>
+      <c r="D20">
+        <v>1.000002051973211</v>
+      </c>
+      <c r="E20">
+        <v>0.9999983073680061</v>
+      </c>
+      <c r="F20">
+        <v>1.000000769575537</v>
+      </c>
+      <c r="G20">
+        <v>1.000000769575537</v>
+      </c>
+      <c r="H20">
+        <v>0.9999969241962288</v>
+      </c>
+      <c r="I20">
+        <v>0.9999969241962288</v>
+      </c>
+      <c r="J20">
+        <v>1.000000769575537</v>
+      </c>
+      <c r="K20">
+        <v>1.000000769575537</v>
+      </c>
+      <c r="L20">
+        <v>1.000000769575537</v>
+      </c>
+      <c r="M20">
+        <v>0.9999988468858829</v>
+      </c>
+      <c r="N20">
+        <v>0.9999988468858829</v>
+      </c>
+      <c r="O20">
+        <v>0.9999986670465907</v>
+      </c>
+      <c r="P20">
+        <v>0.9999994877824343</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999994877824343</v>
+      </c>
+      <c r="R20">
+        <v>0.99999980823071</v>
+      </c>
+      <c r="S20">
+        <v>0.99999980823071</v>
+      </c>
+      <c r="T20">
+        <v>0.9999999320440095</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000016285896783</v>
+      </c>
+      <c r="D21">
+        <v>1.00004342935799</v>
+      </c>
+      <c r="E21">
+        <v>0.99996417135028</v>
+      </c>
+      <c r="F21">
+        <v>1.000016285896783</v>
+      </c>
+      <c r="G21">
+        <v>1.000016285896783</v>
+      </c>
+      <c r="H21">
+        <v>0.999934858927486</v>
+      </c>
+      <c r="I21">
+        <v>0.999934858927486</v>
+      </c>
+      <c r="J21">
+        <v>1.000016285896783</v>
+      </c>
+      <c r="K21">
+        <v>1.000016285896783</v>
+      </c>
+      <c r="L21">
+        <v>1.000016285896783</v>
+      </c>
+      <c r="M21">
+        <v>0.9999755724121346</v>
+      </c>
+      <c r="N21">
+        <v>0.9999755724121346</v>
+      </c>
+      <c r="O21">
+        <v>0.9999717720581831</v>
+      </c>
+      <c r="P21">
+        <v>0.9999891435736842</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999891435736842</v>
+      </c>
+      <c r="R21">
+        <v>0.9999959291544589</v>
+      </c>
+      <c r="S21">
+        <v>0.9999959291544589</v>
+      </c>
+      <c r="T21">
+        <v>0.9999985528876842</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000057337185809</v>
+      </c>
+      <c r="D22">
+        <v>1.000152898470508</v>
+      </c>
+      <c r="E22">
+        <v>0.9998738614954837</v>
+      </c>
+      <c r="F22">
+        <v>1.000057337185809</v>
+      </c>
+      <c r="G22">
+        <v>1.000057337185809</v>
+      </c>
+      <c r="H22">
+        <v>0.9997706566496875</v>
+      </c>
+      <c r="I22">
+        <v>0.9997706566496875</v>
+      </c>
+      <c r="J22">
+        <v>1.000057337185809</v>
+      </c>
+      <c r="K22">
+        <v>1.000057337185809</v>
+      </c>
+      <c r="L22">
+        <v>1.000057337185809</v>
+      </c>
+      <c r="M22">
+        <v>0.9999139969177484</v>
+      </c>
+      <c r="N22">
+        <v>0.9999139969177484</v>
+      </c>
+      <c r="O22">
+        <v>0.9999006184436602</v>
+      </c>
+      <c r="P22">
+        <v>0.9999617770071021</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999617770071021</v>
+      </c>
+      <c r="R22">
+        <v>0.9999856670517788</v>
+      </c>
+      <c r="S22">
+        <v>0.9999856670517788</v>
+      </c>
+      <c r="T22">
+        <v>0.9999949046955178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.000134324090214</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>1.000358185263787</v>
+      </c>
+      <c r="E23">
+        <v>0.9997044973967683</v>
+      </c>
+      <c r="F23">
+        <v>1.000134324090214</v>
+      </c>
+      <c r="G23">
+        <v>1.000134324090214</v>
+      </c>
+      <c r="H23">
         <v>0.9994627191902316</v>
       </c>
-      <c r="E19">
+      <c r="I23">
+        <v>0.9994627191902316</v>
+      </c>
+      <c r="J23">
         <v>1.000134324090214</v>
       </c>
-      <c r="F19">
+      <c r="K23">
         <v>1.000134324090214</v>
       </c>
-      <c r="G19">
-        <v>1.000358185263787</v>
-      </c>
-      <c r="H19">
-        <v>0.9997044973967686</v>
-      </c>
-      <c r="I19">
+      <c r="L23">
         <v>1.000134324090214</v>
       </c>
-      <c r="J19">
-        <v>0.9994627191902316</v>
-      </c>
-      <c r="K19">
-        <v>1.000134324090214</v>
-      </c>
-      <c r="L19">
-        <v>1.000134324090214</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9997985216402228</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9997985216402228</v>
       </c>
-      <c r="O19">
-        <v>0.9997671802257381</v>
-      </c>
-      <c r="P19">
+      <c r="O23">
+        <v>0.9997671802257379</v>
+      </c>
+      <c r="P23">
         <v>0.99991045579022</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.99991045579022</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999664228652185</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999664228652185</v>
       </c>
-      <c r="T19">
-        <v>0.9999880623535716</v>
+      <c r="T23">
+        <v>0.9999880623535714</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW45.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000186220696273</v>
+        <v>1.00194845585015</v>
       </c>
       <c r="D3">
-        <v>1.000496588770302</v>
+        <v>1.00519586911383</v>
       </c>
       <c r="E3">
-        <v>0.9995903142823279</v>
+        <v>0.9957134066570609</v>
       </c>
       <c r="F3">
-        <v>1.000186220696273</v>
+        <v>1.00194845585015</v>
       </c>
       <c r="G3">
-        <v>1.000186220696273</v>
+        <v>1.00194845585015</v>
       </c>
       <c r="H3">
-        <v>0.999255119046439</v>
+        <v>0.9922061952665672</v>
       </c>
       <c r="I3">
-        <v>0.999255119046439</v>
+        <v>0.9922061952665672</v>
       </c>
       <c r="J3">
-        <v>1.000186220696273</v>
+        <v>1.00194845585015</v>
       </c>
       <c r="K3">
-        <v>1.000186220696273</v>
+        <v>1.00194845585015</v>
       </c>
       <c r="L3">
-        <v>1.000186220696273</v>
+        <v>1.00194845585015</v>
       </c>
       <c r="M3">
-        <v>0.9997206698713559</v>
+        <v>0.9970773255583587</v>
       </c>
       <c r="N3">
-        <v>0.9997206698713559</v>
+        <v>0.9970773255583587</v>
       </c>
       <c r="O3">
-        <v>0.9996772180083466</v>
+        <v>0.9966226859245927</v>
       </c>
       <c r="P3">
-        <v>0.9998758534796615</v>
+        <v>0.9987010356556225</v>
       </c>
       <c r="Q3">
-        <v>0.9998758534796615</v>
+        <v>0.9987010356556225</v>
       </c>
       <c r="R3">
-        <v>0.9999534452838142</v>
+        <v>0.9995128907042544</v>
       </c>
       <c r="S3">
-        <v>0.9999534452838142</v>
+        <v>0.9995128907042544</v>
       </c>
       <c r="T3">
-        <v>0.9999834473646478</v>
+        <v>0.9998268064313182</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000359495711253</v>
+        <v>1.001782918225871</v>
       </c>
       <c r="D4">
-        <v>1.000958658147354</v>
+        <v>1.004754436904588</v>
       </c>
       <c r="E4">
-        <v>0.9992091084844512</v>
+        <v>0.9960775884345878</v>
       </c>
       <c r="F4">
-        <v>1.000359495711253</v>
+        <v>1.001782918225871</v>
       </c>
       <c r="G4">
-        <v>1.000359495711253</v>
+        <v>1.001782918225871</v>
       </c>
       <c r="H4">
-        <v>0.9985620162466361</v>
+        <v>0.9928683439759596</v>
       </c>
       <c r="I4">
-        <v>0.9985620162466361</v>
+        <v>0.9928683439759596</v>
       </c>
       <c r="J4">
-        <v>1.000359495711253</v>
+        <v>1.001782918225871</v>
       </c>
       <c r="K4">
-        <v>1.000359495711253</v>
+        <v>1.001782918225871</v>
       </c>
       <c r="L4">
-        <v>1.000359495711253</v>
+        <v>1.001782918225871</v>
       </c>
       <c r="M4">
-        <v>0.9994607559789446</v>
+        <v>0.9973256311009152</v>
       </c>
       <c r="N4">
-        <v>0.9994607559789446</v>
+        <v>0.9973256311009152</v>
       </c>
       <c r="O4">
-        <v>0.9993768734807801</v>
+        <v>0.996909616878806</v>
       </c>
       <c r="P4">
-        <v>0.9997603358897141</v>
+        <v>0.9988113934759003</v>
       </c>
       <c r="Q4">
-        <v>0.9997603358897141</v>
+        <v>0.9988113934759003</v>
       </c>
       <c r="R4">
-        <v>0.9999101258450989</v>
+        <v>0.999554274663393</v>
       </c>
       <c r="S4">
-        <v>0.9999101258450989</v>
+        <v>0.999554274663393</v>
       </c>
       <c r="T4">
-        <v>0.9999680450020335</v>
+        <v>0.999841520665458</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000688934744178</v>
+        <v>1.002263350377357</v>
       </c>
       <c r="D5">
-        <v>1.001837143322659</v>
+        <v>1.006035580754717</v>
       </c>
       <c r="E5">
-        <v>0.9984843550807377</v>
+        <v>0.9950206448247988</v>
       </c>
       <c r="F5">
-        <v>1.000688934744178</v>
+        <v>1.002263350377357</v>
       </c>
       <c r="G5">
-        <v>1.000688934744178</v>
+        <v>1.002263350377357</v>
       </c>
       <c r="H5">
-        <v>0.9972442801492186</v>
+        <v>0.9909466226954191</v>
       </c>
       <c r="I5">
-        <v>0.9972442801492186</v>
+        <v>0.9909466226954191</v>
       </c>
       <c r="J5">
-        <v>1.000688934744178</v>
+        <v>1.002263350377357</v>
       </c>
       <c r="K5">
-        <v>1.000688934744178</v>
+        <v>1.002263350377357</v>
       </c>
       <c r="L5">
-        <v>1.000688934744178</v>
+        <v>1.002263350377357</v>
       </c>
       <c r="M5">
-        <v>0.9989666074466983</v>
+        <v>0.9966049865363881</v>
       </c>
       <c r="N5">
-        <v>0.9989666074466983</v>
+        <v>0.9966049865363881</v>
       </c>
       <c r="O5">
-        <v>0.9988058566580448</v>
+        <v>0.996076872632525</v>
       </c>
       <c r="P5">
-        <v>0.9995407165458582</v>
+        <v>0.998491107816711</v>
       </c>
       <c r="Q5">
-        <v>0.9995407165458582</v>
+        <v>0.998491107816711</v>
       </c>
       <c r="R5">
-        <v>0.9998277710954381</v>
+        <v>0.9994341684568725</v>
       </c>
       <c r="S5">
-        <v>0.9998277710954381</v>
+        <v>0.9994341684568725</v>
       </c>
       <c r="T5">
-        <v>0.9999387637975247</v>
+        <v>0.9997988165678343</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.001010433745963</v>
+        <v>1.002557981363636</v>
       </c>
       <c r="D6">
-        <v>1.002694509964751</v>
+        <v>1.006821270113637</v>
       </c>
       <c r="E6">
-        <v>0.9977770334652303</v>
+        <v>0.9943724475568183</v>
       </c>
       <c r="F6">
-        <v>1.001010433745963</v>
+        <v>1.002557981363636</v>
       </c>
       <c r="G6">
-        <v>1.001010433745963</v>
+        <v>1.002557981363636</v>
       </c>
       <c r="H6">
-        <v>0.9959582377523093</v>
+        <v>0.989768089034091</v>
       </c>
       <c r="I6">
-        <v>0.9959582377523093</v>
+        <v>0.989768089034091</v>
       </c>
       <c r="J6">
-        <v>1.001010433745963</v>
+        <v>1.002557981363636</v>
       </c>
       <c r="K6">
-        <v>1.001010433745963</v>
+        <v>1.002557981363636</v>
       </c>
       <c r="L6">
-        <v>1.001010433745963</v>
+        <v>1.002557981363636</v>
       </c>
       <c r="M6">
-        <v>0.998484335749136</v>
+        <v>0.9961630351988636</v>
       </c>
       <c r="N6">
-        <v>0.998484335749136</v>
+        <v>0.9961630351988636</v>
       </c>
       <c r="O6">
-        <v>0.9982485683211674</v>
+        <v>0.9955661726515151</v>
       </c>
       <c r="P6">
-        <v>0.9993263684147449</v>
+        <v>0.9982946839204545</v>
       </c>
       <c r="Q6">
-        <v>0.9993263684147449</v>
+        <v>0.9982946839204545</v>
       </c>
       <c r="R6">
-        <v>0.9997473847475493</v>
+        <v>0.99936050828125</v>
       </c>
       <c r="S6">
-        <v>0.9997473847475493</v>
+        <v>0.99936050828125</v>
       </c>
       <c r="T6">
-        <v>0.9999101804033631</v>
+        <v>0.9997726251325757</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000013276889647</v>
+        <v>1.001083506007311</v>
       </c>
       <c r="D7">
-        <v>1.00003540446517</v>
+        <v>1.002889331693611</v>
       </c>
       <c r="E7">
-        <v>0.9999707914599549</v>
+        <v>0.9976162948132575</v>
       </c>
       <c r="F7">
-        <v>1.000013276889647</v>
+        <v>1.001083506007311</v>
       </c>
       <c r="G7">
-        <v>1.000013276889647</v>
+        <v>1.001083506007311</v>
       </c>
       <c r="H7">
-        <v>0.9999468952416061</v>
+        <v>0.9956660030657497</v>
       </c>
       <c r="I7">
-        <v>0.9999468952416061</v>
+        <v>0.9956660030657497</v>
       </c>
       <c r="J7">
-        <v>1.000013276889647</v>
+        <v>1.001083506007311</v>
       </c>
       <c r="K7">
-        <v>1.000013276889647</v>
+        <v>1.001083506007311</v>
       </c>
       <c r="L7">
-        <v>1.000013276889647</v>
+        <v>1.001083506007311</v>
       </c>
       <c r="M7">
-        <v>0.9999800860656265</v>
+        <v>0.9983747545365302</v>
       </c>
       <c r="N7">
-        <v>0.9999800860656265</v>
+        <v>0.9983747545365302</v>
       </c>
       <c r="O7">
-        <v>0.9999769878637359</v>
+        <v>0.9981219346287727</v>
       </c>
       <c r="P7">
-        <v>0.9999911496736335</v>
+        <v>0.999277671693457</v>
       </c>
       <c r="Q7">
-        <v>0.9999911496736335</v>
+        <v>0.999277671693457</v>
       </c>
       <c r="R7">
-        <v>0.9999966814776369</v>
+        <v>0.9997291302719205</v>
       </c>
       <c r="S7">
-        <v>0.9999966814776369</v>
+        <v>0.9997291302719205</v>
       </c>
       <c r="T7">
-        <v>0.9999988203059454</v>
+        <v>0.9999036912657585</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000033839275384</v>
+        <v>1.001126469056711</v>
       </c>
       <c r="D8">
-        <v>1.000090237688475</v>
+        <v>1.003003900059562</v>
       </c>
       <c r="E8">
-        <v>0.9999255538080086</v>
+        <v>0.997521775932388</v>
       </c>
       <c r="F8">
-        <v>1.000033839275384</v>
+        <v>1.001126469056711</v>
       </c>
       <c r="G8">
-        <v>1.000033839275384</v>
+        <v>1.001126469056711</v>
       </c>
       <c r="H8">
-        <v>0.9998646451299626</v>
+        <v>0.9954941504626742</v>
       </c>
       <c r="I8">
-        <v>0.9998646451299626</v>
+        <v>0.9954941504626742</v>
       </c>
       <c r="J8">
-        <v>1.000033839275384</v>
+        <v>1.001126469056711</v>
       </c>
       <c r="K8">
-        <v>1.000033839275384</v>
+        <v>1.001126469056711</v>
       </c>
       <c r="L8">
-        <v>1.000033839275384</v>
+        <v>1.001126469056711</v>
       </c>
       <c r="M8">
-        <v>0.9999492422026734</v>
+        <v>0.9983103097596926</v>
       </c>
       <c r="N8">
-        <v>0.9999492422026734</v>
+        <v>0.9983103097596926</v>
       </c>
       <c r="O8">
-        <v>0.9999413460711185</v>
+        <v>0.9980474651505911</v>
       </c>
       <c r="P8">
-        <v>0.9999774412269105</v>
+        <v>0.9992490295253654</v>
       </c>
       <c r="Q8">
-        <v>0.9999774412269105</v>
+        <v>0.9992490295253654</v>
       </c>
       <c r="R8">
-        <v>0.999991540739029</v>
+        <v>0.9997183894082018</v>
       </c>
       <c r="S8">
-        <v>0.999991540739029</v>
+        <v>0.9997183894082018</v>
       </c>
       <c r="T8">
-        <v>0.9999969924087666</v>
+        <v>0.9998998722707929</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000047379367409</v>
+        <v>1.001163137561681</v>
       </c>
       <c r="D9">
-        <v>1.000126345535558</v>
+        <v>1.003101682547928</v>
       </c>
       <c r="E9">
-        <v>0.9998957656734142</v>
+        <v>0.9974411053491177</v>
       </c>
       <c r="F9">
-        <v>1.000047379367409</v>
+        <v>1.001163137561681</v>
       </c>
       <c r="G9">
-        <v>1.000047379367409</v>
+        <v>1.001163137561681</v>
       </c>
       <c r="H9">
-        <v>0.9998104834913281</v>
+        <v>0.9953474766112624</v>
       </c>
       <c r="I9">
-        <v>0.9998104834913281</v>
+        <v>0.9953474766112624</v>
       </c>
       <c r="J9">
-        <v>1.000047379367409</v>
+        <v>1.001163137561681</v>
       </c>
       <c r="K9">
-        <v>1.000047379367409</v>
+        <v>1.001163137561681</v>
       </c>
       <c r="L9">
-        <v>1.000047379367409</v>
+        <v>1.001163137561681</v>
       </c>
       <c r="M9">
-        <v>0.9999289314293687</v>
+        <v>0.9982553070864718</v>
       </c>
       <c r="N9">
-        <v>0.9999289314293687</v>
+        <v>0.9982553070864718</v>
       </c>
       <c r="O9">
-        <v>0.9999178761773839</v>
+        <v>0.9979839065073538</v>
       </c>
       <c r="P9">
-        <v>0.9999684140753823</v>
+        <v>0.9992245839115416</v>
       </c>
       <c r="Q9">
-        <v>0.9999684140753823</v>
+        <v>0.9992245839115416</v>
       </c>
       <c r="R9">
-        <v>0.999988155398389</v>
+        <v>0.9997092223240764</v>
       </c>
       <c r="S9">
-        <v>0.999988155398389</v>
+        <v>0.9997092223240764</v>
       </c>
       <c r="T9">
-        <v>0.9999957888004213</v>
+        <v>0.9998966128655585</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000102161672891</v>
+        <v>1.001249805916989</v>
       </c>
       <c r="D10">
-        <v>1.000272430121526</v>
+        <v>1.003332798264379</v>
       </c>
       <c r="E10">
-        <v>0.9997752447787634</v>
+        <v>0.997250435223904</v>
       </c>
       <c r="F10">
-        <v>1.000102161672891</v>
+        <v>1.001249805916989</v>
       </c>
       <c r="G10">
-        <v>1.000102161672891</v>
+        <v>1.001249805916989</v>
       </c>
       <c r="H10">
-        <v>0.9995913560484081</v>
+        <v>0.9950008033681041</v>
       </c>
       <c r="I10">
-        <v>0.9995913560484081</v>
+        <v>0.9950008033681041</v>
       </c>
       <c r="J10">
-        <v>1.000102161672891</v>
+        <v>1.001249805916989</v>
       </c>
       <c r="K10">
-        <v>1.000102161672891</v>
+        <v>1.001249805916989</v>
       </c>
       <c r="L10">
-        <v>1.000102161672891</v>
+        <v>1.001249805916989</v>
       </c>
       <c r="M10">
-        <v>0.9998467588606494</v>
+        <v>0.9981253046425463</v>
       </c>
       <c r="N10">
-        <v>0.9998467588606494</v>
+        <v>0.9981253046425463</v>
       </c>
       <c r="O10">
-        <v>0.9998229208333541</v>
+        <v>0.9978336815029989</v>
       </c>
       <c r="P10">
-        <v>0.9999318931313965</v>
+        <v>0.9991668050673604</v>
       </c>
       <c r="Q10">
-        <v>0.9999318931313965</v>
+        <v>0.9991668050673604</v>
       </c>
       <c r="R10">
-        <v>0.9999744602667702</v>
+        <v>0.9996875552797675</v>
       </c>
       <c r="S10">
-        <v>0.9999744602667702</v>
+        <v>0.9996875552797675</v>
       </c>
       <c r="T10">
-        <v>0.999990919327895</v>
+        <v>0.9998889091012256</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000169459552945</v>
+        <v>1.00020332152893</v>
       </c>
       <c r="D11">
-        <v>1.000451894798128</v>
+        <v>1.000542191497408</v>
       </c>
       <c r="E11">
-        <v>0.9996271852805241</v>
+        <v>0.9995526921759467</v>
       </c>
       <c r="F11">
-        <v>1.000169459552945</v>
+        <v>1.00020332152893</v>
       </c>
       <c r="G11">
-        <v>1.000169459552945</v>
+        <v>1.00020332152893</v>
       </c>
       <c r="H11">
-        <v>0.9993221570010005</v>
+        <v>0.9991867150210981</v>
       </c>
       <c r="I11">
-        <v>0.9993221570010005</v>
+        <v>0.9991867150210981</v>
       </c>
       <c r="J11">
-        <v>1.000169459552945</v>
+        <v>1.00020332152893</v>
       </c>
       <c r="K11">
-        <v>1.000169459552945</v>
+        <v>1.00020332152893</v>
       </c>
       <c r="L11">
-        <v>1.000169459552945</v>
+        <v>1.00020332152893</v>
       </c>
       <c r="M11">
-        <v>0.9997458082769726</v>
+        <v>0.9996950182750139</v>
       </c>
       <c r="N11">
-        <v>0.9997458082769726</v>
+        <v>0.9996950182750139</v>
       </c>
       <c r="O11">
-        <v>0.9997062672781564</v>
+        <v>0.9996475762419915</v>
       </c>
       <c r="P11">
-        <v>0.9998870253689632</v>
+        <v>0.9998644526929859</v>
       </c>
       <c r="Q11">
-        <v>0.9998870253689632</v>
+        <v>0.9998644526929859</v>
       </c>
       <c r="R11">
-        <v>0.9999576339149586</v>
+        <v>0.9999491699019718</v>
       </c>
       <c r="S11">
-        <v>0.9999576339149586</v>
+        <v>0.9999491699019718</v>
       </c>
       <c r="T11">
-        <v>0.9999849359564145</v>
+        <v>0.9999819272135402</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9984980665675514</v>
+        <v>1.000097167296597</v>
       </c>
       <c r="D12">
-        <v>0.995994846893131</v>
+        <v>1.000259112598474</v>
       </c>
       <c r="E12">
-        <v>1.003304252380399</v>
+        <v>0.9997862323344777</v>
       </c>
       <c r="F12">
-        <v>0.9984980665675514</v>
+        <v>1.000097167296597</v>
       </c>
       <c r="G12">
-        <v>0.9984980665675514</v>
+        <v>1.000097167296597</v>
       </c>
       <c r="H12">
-        <v>1.006007732561564</v>
+        <v>0.999611333272557</v>
       </c>
       <c r="I12">
-        <v>1.006007732561564</v>
+        <v>0.999611333272557</v>
       </c>
       <c r="J12">
-        <v>0.9984980665675514</v>
+        <v>1.000097167296597</v>
       </c>
       <c r="K12">
-        <v>0.9984980665675514</v>
+        <v>1.000097167296597</v>
       </c>
       <c r="L12">
-        <v>0.9984980665675514</v>
+        <v>1.000097167296597</v>
       </c>
       <c r="M12">
-        <v>1.002252899564557</v>
+        <v>0.9998542502845771</v>
       </c>
       <c r="N12">
-        <v>1.002252899564557</v>
+        <v>0.9998542502845771</v>
       </c>
       <c r="O12">
-        <v>1.002603350503171</v>
+        <v>0.999831577634544</v>
       </c>
       <c r="P12">
-        <v>1.001001288565555</v>
+        <v>0.9999352226219171</v>
       </c>
       <c r="Q12">
-        <v>1.001001288565555</v>
+        <v>0.9999352226219171</v>
       </c>
       <c r="R12">
-        <v>1.000375483066054</v>
+        <v>0.9999757087905872</v>
       </c>
       <c r="S12">
-        <v>1.000375483066054</v>
+        <v>0.9999757087905872</v>
       </c>
       <c r="T12">
-        <v>1.000133505256291</v>
+        <v>0.9999913633492167</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9996122236349583</v>
+        <v>1.000327360450749</v>
       </c>
       <c r="D13">
-        <v>0.9989659182172428</v>
+        <v>1.000872961140719</v>
       </c>
       <c r="E13">
-        <v>1.000853110027781</v>
+        <v>0.9992798092735856</v>
       </c>
       <c r="F13">
-        <v>0.9996122236349583</v>
+        <v>1.000327360450749</v>
       </c>
       <c r="G13">
-        <v>0.9996122236349583</v>
+        <v>1.000327360450749</v>
       </c>
       <c r="H13">
-        <v>1.001551118814635</v>
+        <v>0.998690561941581</v>
       </c>
       <c r="I13">
-        <v>1.001551118814635</v>
+        <v>0.998690561941581</v>
       </c>
       <c r="J13">
-        <v>0.9996122236349583</v>
+        <v>1.000327360450749</v>
       </c>
       <c r="K13">
-        <v>0.9996122236349583</v>
+        <v>1.000327360450749</v>
       </c>
       <c r="L13">
-        <v>0.9996122236349583</v>
+        <v>1.000327360450749</v>
       </c>
       <c r="M13">
-        <v>1.000581671224797</v>
+        <v>0.9995089611961649</v>
       </c>
       <c r="N13">
-        <v>1.000581671224797</v>
+        <v>0.9995089611961649</v>
       </c>
       <c r="O13">
-        <v>1.000672150825791</v>
+        <v>0.9994325772219718</v>
       </c>
       <c r="P13">
-        <v>1.000258522028184</v>
+        <v>0.9997817609476929</v>
       </c>
       <c r="Q13">
-        <v>1.000258522028184</v>
+        <v>0.9997817609476929</v>
       </c>
       <c r="R13">
-        <v>1.000096947429878</v>
+        <v>0.9999181608234569</v>
       </c>
       <c r="S13">
-        <v>1.000096947429878</v>
+        <v>0.9999181608234569</v>
       </c>
       <c r="T13">
-        <v>1.000034469660756</v>
+        <v>0.9999709022846887</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9984981641398782</v>
+        <v>1.000519242981296</v>
       </c>
       <c r="D14">
-        <v>0.9959951328860016</v>
+        <v>1.001384653484725</v>
       </c>
       <c r="E14">
-        <v>1.003304018664318</v>
+        <v>0.9988576564322259</v>
       </c>
       <c r="F14">
-        <v>0.9984981641398782</v>
+        <v>1.000519242981296</v>
       </c>
       <c r="G14">
-        <v>0.9984981641398782</v>
+        <v>1.000519242981296</v>
       </c>
       <c r="H14">
-        <v>1.006007306339125</v>
+        <v>0.9979230189088621</v>
       </c>
       <c r="I14">
-        <v>1.006007306339125</v>
+        <v>0.9979230189088621</v>
       </c>
       <c r="J14">
-        <v>0.9984981641398782</v>
+        <v>1.000519242981296</v>
       </c>
       <c r="K14">
-        <v>0.9984981641398782</v>
+        <v>1.000519242981296</v>
       </c>
       <c r="L14">
-        <v>0.9984981641398782</v>
+        <v>1.000519242981296</v>
       </c>
       <c r="M14">
-        <v>1.002252735239502</v>
+        <v>0.9992211309450793</v>
       </c>
       <c r="N14">
-        <v>1.002252735239502</v>
+        <v>0.9992211309450793</v>
       </c>
       <c r="O14">
-        <v>1.002603163047774</v>
+        <v>0.9990999727741281</v>
       </c>
       <c r="P14">
-        <v>1.001001211539627</v>
+        <v>0.9996538349571517</v>
       </c>
       <c r="Q14">
-        <v>1.001001211539627</v>
+        <v>0.9996538349571517</v>
       </c>
       <c r="R14">
-        <v>1.00037544968969</v>
+        <v>0.9998701869631879</v>
       </c>
       <c r="S14">
-        <v>1.00037544968969</v>
+        <v>0.9998701869631879</v>
       </c>
       <c r="T14">
-        <v>1.00013349171818</v>
+        <v>0.999953842961617</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9996122454127948</v>
+        <v>1.000186220696273</v>
       </c>
       <c r="D15">
-        <v>0.9989659978780547</v>
+        <v>1.000496588770302</v>
       </c>
       <c r="E15">
-        <v>1.00085305578587</v>
+        <v>0.9995903142823279</v>
       </c>
       <c r="F15">
-        <v>0.9996122454127948</v>
+        <v>1.000186220696273</v>
       </c>
       <c r="G15">
-        <v>0.9996122454127948</v>
+        <v>1.000186220696273</v>
       </c>
       <c r="H15">
-        <v>1.001551005564818</v>
+        <v>0.999255119046439</v>
       </c>
       <c r="I15">
-        <v>1.001551005564818</v>
+        <v>0.999255119046439</v>
       </c>
       <c r="J15">
-        <v>0.9996122454127948</v>
+        <v>1.000186220696273</v>
       </c>
       <c r="K15">
-        <v>0.9996122454127948</v>
+        <v>1.000186220696273</v>
       </c>
       <c r="L15">
-        <v>0.9996122454127948</v>
+        <v>1.000186220696273</v>
       </c>
       <c r="M15">
-        <v>1.000581625488806</v>
+        <v>0.9997206698713559</v>
       </c>
       <c r="N15">
-        <v>1.000581625488806</v>
+        <v>0.9997206698713559</v>
       </c>
       <c r="O15">
-        <v>1.000672102254494</v>
+        <v>0.9996772180083466</v>
       </c>
       <c r="P15">
-        <v>1.000258498796803</v>
+        <v>0.9998758534796615</v>
       </c>
       <c r="Q15">
-        <v>1.000258498796803</v>
+        <v>0.9998758534796615</v>
       </c>
       <c r="R15">
-        <v>1.000096935450801</v>
+        <v>0.9999534452838142</v>
       </c>
       <c r="S15">
-        <v>1.000096935450801</v>
+        <v>0.9999534452838142</v>
       </c>
       <c r="T15">
-        <v>1.000034465911188</v>
+        <v>0.9999834473646478</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.003632228115505</v>
+        <v>1.000359495711253</v>
       </c>
       <c r="D16">
-        <v>1.009685944633092</v>
+        <v>1.000958658147354</v>
       </c>
       <c r="E16">
-        <v>0.992009099623428</v>
+        <v>0.9992091084844512</v>
       </c>
       <c r="F16">
-        <v>1.003632228115505</v>
+        <v>1.000359495711253</v>
       </c>
       <c r="G16">
-        <v>1.003632228115505</v>
+        <v>1.000359495711253</v>
       </c>
       <c r="H16">
-        <v>0.9854710904915405</v>
+        <v>0.9985620162466361</v>
       </c>
       <c r="I16">
-        <v>0.9854710904915405</v>
+        <v>0.9985620162466361</v>
       </c>
       <c r="J16">
-        <v>1.003632228115505</v>
+        <v>1.000359495711253</v>
       </c>
       <c r="K16">
-        <v>1.003632228115505</v>
+        <v>1.000359495711253</v>
       </c>
       <c r="L16">
-        <v>1.003632228115505</v>
+        <v>1.000359495711253</v>
       </c>
       <c r="M16">
-        <v>0.9945516593035229</v>
+        <v>0.9994607559789446</v>
       </c>
       <c r="N16">
-        <v>0.9945516593035229</v>
+        <v>0.9994607559789446</v>
       </c>
       <c r="O16">
-        <v>0.9937041394101579</v>
+        <v>0.9993768734807801</v>
       </c>
       <c r="P16">
-        <v>0.9975785155741836</v>
+        <v>0.9997603358897141</v>
       </c>
       <c r="Q16">
-        <v>0.9975785155741836</v>
+        <v>0.9997603358897141</v>
       </c>
       <c r="R16">
-        <v>0.999091943709514</v>
+        <v>0.9999101258450989</v>
       </c>
       <c r="S16">
-        <v>0.999091943709514</v>
+        <v>0.9999101258450989</v>
       </c>
       <c r="T16">
-        <v>0.9996771365157627</v>
+        <v>0.9999680450020335</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.00297223705002</v>
+        <v>1.000688934744178</v>
       </c>
       <c r="D17">
-        <v>1.007925963976742</v>
+        <v>1.001837143322659</v>
       </c>
       <c r="E17">
-        <v>0.9934610820502473</v>
+        <v>0.9984843550807377</v>
       </c>
       <c r="F17">
-        <v>1.00297223705002</v>
+        <v>1.000688934744178</v>
       </c>
       <c r="G17">
-        <v>1.00297223705002</v>
+        <v>1.000688934744178</v>
       </c>
       <c r="H17">
-        <v>0.9881110589038758</v>
+        <v>0.9972442801492186</v>
       </c>
       <c r="I17">
-        <v>0.9881110589038758</v>
+        <v>0.9972442801492186</v>
       </c>
       <c r="J17">
-        <v>1.00297223705002</v>
+        <v>1.000688934744178</v>
       </c>
       <c r="K17">
-        <v>1.00297223705002</v>
+        <v>1.000688934744178</v>
       </c>
       <c r="L17">
-        <v>1.00297223705002</v>
+        <v>1.000688934744178</v>
       </c>
       <c r="M17">
-        <v>0.9955416479769477</v>
+        <v>0.9989666074466983</v>
       </c>
       <c r="N17">
-        <v>0.9955416479769477</v>
+        <v>0.9989666074466983</v>
       </c>
       <c r="O17">
-        <v>0.994848126001381</v>
+        <v>0.9988058566580448</v>
       </c>
       <c r="P17">
-        <v>0.998018511001305</v>
+        <v>0.9995407165458582</v>
       </c>
       <c r="Q17">
-        <v>0.998018511001305</v>
+        <v>0.9995407165458582</v>
       </c>
       <c r="R17">
-        <v>0.9992569425134836</v>
+        <v>0.9998277710954381</v>
       </c>
       <c r="S17">
-        <v>0.9992569425134836</v>
+        <v>0.9998277710954381</v>
       </c>
       <c r="T17">
-        <v>0.9997358026801538</v>
+        <v>0.9999387637975247</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001645131292946</v>
+        <v>1.001010433745963</v>
       </c>
       <c r="D18">
-        <v>1.004387009010195</v>
+        <v>1.002694509964751</v>
       </c>
       <c r="E18">
-        <v>0.996380718309807</v>
+        <v>0.9977770334652303</v>
       </c>
       <c r="F18">
-        <v>1.001645131292946</v>
+        <v>1.001010433745963</v>
       </c>
       <c r="G18">
-        <v>1.001645131292946</v>
+        <v>1.001010433745963</v>
       </c>
       <c r="H18">
-        <v>0.9934194870151687</v>
+        <v>0.9959582377523093</v>
       </c>
       <c r="I18">
-        <v>0.9934194870151687</v>
+        <v>0.9959582377523093</v>
       </c>
       <c r="J18">
-        <v>1.001645131292946</v>
+        <v>1.001010433745963</v>
       </c>
       <c r="K18">
-        <v>1.001645131292946</v>
+        <v>1.001010433745963</v>
       </c>
       <c r="L18">
-        <v>1.001645131292946</v>
+        <v>1.001010433745963</v>
       </c>
       <c r="M18">
-        <v>0.9975323091540574</v>
+        <v>0.998484335749136</v>
       </c>
       <c r="N18">
-        <v>0.9975323091540574</v>
+        <v>0.998484335749136</v>
       </c>
       <c r="O18">
-        <v>0.9971484455393073</v>
+        <v>0.9982485683211674</v>
       </c>
       <c r="P18">
-        <v>0.9989032498670204</v>
+        <v>0.9993263684147449</v>
       </c>
       <c r="Q18">
-        <v>0.9989032498670204</v>
+        <v>0.9993263684147449</v>
       </c>
       <c r="R18">
-        <v>0.9995887202235019</v>
+        <v>0.9997473847475493</v>
       </c>
       <c r="S18">
-        <v>0.9995887202235019</v>
+        <v>0.9997473847475493</v>
       </c>
       <c r="T18">
-        <v>0.9998537680356682</v>
+        <v>0.9999101804033631</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.001795852862132</v>
+        <v>1.000013276889647</v>
       </c>
       <c r="D19">
-        <v>1.004788923640935</v>
+        <v>1.00003540446517</v>
       </c>
       <c r="E19">
-        <v>0.9960491349023838</v>
+        <v>0.9999707914599549</v>
       </c>
       <c r="F19">
-        <v>1.001795852862132</v>
+        <v>1.000013276889647</v>
       </c>
       <c r="G19">
-        <v>1.001795852862132</v>
+        <v>1.000013276889647</v>
       </c>
       <c r="H19">
-        <v>0.9928166135872998</v>
+        <v>0.9999468952416061</v>
       </c>
       <c r="I19">
-        <v>0.9928166135872998</v>
+        <v>0.9999468952416061</v>
       </c>
       <c r="J19">
-        <v>1.001795852862132</v>
+        <v>1.000013276889647</v>
       </c>
       <c r="K19">
-        <v>1.001795852862132</v>
+        <v>1.000013276889647</v>
       </c>
       <c r="L19">
-        <v>1.001795852862132</v>
+        <v>1.000013276889647</v>
       </c>
       <c r="M19">
-        <v>0.9973062332247161</v>
+        <v>0.9999800860656265</v>
       </c>
       <c r="N19">
-        <v>0.9973062332247161</v>
+        <v>0.9999800860656265</v>
       </c>
       <c r="O19">
-        <v>0.9968872004506054</v>
+        <v>0.9999769878637359</v>
       </c>
       <c r="P19">
-        <v>0.9988027731038548</v>
+        <v>0.9999911496736335</v>
       </c>
       <c r="Q19">
-        <v>0.9988027731038548</v>
+        <v>0.9999911496736335</v>
       </c>
       <c r="R19">
-        <v>0.9995510430434242</v>
+        <v>0.9999966814776369</v>
       </c>
       <c r="S19">
-        <v>0.9995510430434242</v>
+        <v>0.9999966814776369</v>
       </c>
       <c r="T19">
-        <v>0.9998403717861692</v>
+        <v>0.9999988203059454</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000000769575537</v>
+        <v>1.000033839275384</v>
       </c>
       <c r="D20">
-        <v>1.000002051973211</v>
+        <v>1.000090237688475</v>
       </c>
       <c r="E20">
-        <v>0.9999983073680061</v>
+        <v>0.9999255538080086</v>
       </c>
       <c r="F20">
-        <v>1.000000769575537</v>
+        <v>1.000033839275384</v>
       </c>
       <c r="G20">
-        <v>1.000000769575537</v>
+        <v>1.000033839275384</v>
       </c>
       <c r="H20">
-        <v>0.9999969241962288</v>
+        <v>0.9998646451299626</v>
       </c>
       <c r="I20">
-        <v>0.9999969241962288</v>
+        <v>0.9998646451299626</v>
       </c>
       <c r="J20">
-        <v>1.000000769575537</v>
+        <v>1.000033839275384</v>
       </c>
       <c r="K20">
-        <v>1.000000769575537</v>
+        <v>1.000033839275384</v>
       </c>
       <c r="L20">
-        <v>1.000000769575537</v>
+        <v>1.000033839275384</v>
       </c>
       <c r="M20">
-        <v>0.9999988468858829</v>
+        <v>0.9999492422026734</v>
       </c>
       <c r="N20">
-        <v>0.9999988468858829</v>
+        <v>0.9999492422026734</v>
       </c>
       <c r="O20">
-        <v>0.9999986670465907</v>
+        <v>0.9999413460711185</v>
       </c>
       <c r="P20">
-        <v>0.9999994877824343</v>
+        <v>0.9999774412269105</v>
       </c>
       <c r="Q20">
-        <v>0.9999994877824343</v>
+        <v>0.9999774412269105</v>
       </c>
       <c r="R20">
-        <v>0.99999980823071</v>
+        <v>0.999991540739029</v>
       </c>
       <c r="S20">
-        <v>0.99999980823071</v>
+        <v>0.999991540739029</v>
       </c>
       <c r="T20">
-        <v>0.9999999320440095</v>
+        <v>0.9999969924087666</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000016285896783</v>
+        <v>1.000047379367409</v>
       </c>
       <c r="D21">
-        <v>1.00004342935799</v>
+        <v>1.000126345535558</v>
       </c>
       <c r="E21">
-        <v>0.99996417135028</v>
+        <v>0.9998957656734142</v>
       </c>
       <c r="F21">
-        <v>1.000016285896783</v>
+        <v>1.000047379367409</v>
       </c>
       <c r="G21">
-        <v>1.000016285896783</v>
+        <v>1.000047379367409</v>
       </c>
       <c r="H21">
-        <v>0.999934858927486</v>
+        <v>0.9998104834913281</v>
       </c>
       <c r="I21">
-        <v>0.999934858927486</v>
+        <v>0.9998104834913281</v>
       </c>
       <c r="J21">
-        <v>1.000016285896783</v>
+        <v>1.000047379367409</v>
       </c>
       <c r="K21">
-        <v>1.000016285896783</v>
+        <v>1.000047379367409</v>
       </c>
       <c r="L21">
-        <v>1.000016285896783</v>
+        <v>1.000047379367409</v>
       </c>
       <c r="M21">
-        <v>0.9999755724121346</v>
+        <v>0.9999289314293687</v>
       </c>
       <c r="N21">
-        <v>0.9999755724121346</v>
+        <v>0.9999289314293687</v>
       </c>
       <c r="O21">
-        <v>0.9999717720581831</v>
+        <v>0.9999178761773839</v>
       </c>
       <c r="P21">
-        <v>0.9999891435736842</v>
+        <v>0.9999684140753823</v>
       </c>
       <c r="Q21">
-        <v>0.9999891435736842</v>
+        <v>0.9999684140753823</v>
       </c>
       <c r="R21">
-        <v>0.9999959291544589</v>
+        <v>0.999988155398389</v>
       </c>
       <c r="S21">
-        <v>0.9999959291544589</v>
+        <v>0.999988155398389</v>
       </c>
       <c r="T21">
-        <v>0.9999985528876842</v>
+        <v>0.9999957888004213</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000057337185809</v>
+        <v>1.000102161672891</v>
       </c>
       <c r="D22">
-        <v>1.000152898470508</v>
+        <v>1.000272430121526</v>
       </c>
       <c r="E22">
-        <v>0.9998738614954837</v>
+        <v>0.9997752447787634</v>
       </c>
       <c r="F22">
-        <v>1.000057337185809</v>
+        <v>1.000102161672891</v>
       </c>
       <c r="G22">
-        <v>1.000057337185809</v>
+        <v>1.000102161672891</v>
       </c>
       <c r="H22">
-        <v>0.9997706566496875</v>
+        <v>0.9995913560484081</v>
       </c>
       <c r="I22">
-        <v>0.9997706566496875</v>
+        <v>0.9995913560484081</v>
       </c>
       <c r="J22">
-        <v>1.000057337185809</v>
+        <v>1.000102161672891</v>
       </c>
       <c r="K22">
-        <v>1.000057337185809</v>
+        <v>1.000102161672891</v>
       </c>
       <c r="L22">
-        <v>1.000057337185809</v>
+        <v>1.000102161672891</v>
       </c>
       <c r="M22">
-        <v>0.9999139969177484</v>
+        <v>0.9998467588606494</v>
       </c>
       <c r="N22">
-        <v>0.9999139969177484</v>
+        <v>0.9998467588606494</v>
       </c>
       <c r="O22">
-        <v>0.9999006184436602</v>
+        <v>0.9998229208333541</v>
       </c>
       <c r="P22">
-        <v>0.9999617770071021</v>
+        <v>0.9999318931313965</v>
       </c>
       <c r="Q22">
-        <v>0.9999617770071021</v>
+        <v>0.9999318931313965</v>
       </c>
       <c r="R22">
-        <v>0.9999856670517788</v>
+        <v>0.9999744602667702</v>
       </c>
       <c r="S22">
-        <v>0.9999856670517788</v>
+        <v>0.9999744602667702</v>
       </c>
       <c r="T22">
-        <v>0.9999949046955178</v>
+        <v>0.999990919327895</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000169459552945</v>
+      </c>
+      <c r="D23">
+        <v>1.000451894798128</v>
+      </c>
+      <c r="E23">
+        <v>0.9996271852805241</v>
+      </c>
+      <c r="F23">
+        <v>1.000169459552945</v>
+      </c>
+      <c r="G23">
+        <v>1.000169459552945</v>
+      </c>
+      <c r="H23">
+        <v>0.9993221570010005</v>
+      </c>
+      <c r="I23">
+        <v>0.9993221570010005</v>
+      </c>
+      <c r="J23">
+        <v>1.000169459552945</v>
+      </c>
+      <c r="K23">
+        <v>1.000169459552945</v>
+      </c>
+      <c r="L23">
+        <v>1.000169459552945</v>
+      </c>
+      <c r="M23">
+        <v>0.9997458082769726</v>
+      </c>
+      <c r="N23">
+        <v>0.9997458082769726</v>
+      </c>
+      <c r="O23">
+        <v>0.9997062672781564</v>
+      </c>
+      <c r="P23">
+        <v>0.9998870253689632</v>
+      </c>
+      <c r="Q23">
+        <v>0.9998870253689632</v>
+      </c>
+      <c r="R23">
+        <v>0.9999576339149586</v>
+      </c>
+      <c r="S23">
+        <v>0.9999576339149586</v>
+      </c>
+      <c r="T23">
+        <v>0.9999849359564145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9984980665675514</v>
+      </c>
+      <c r="D24">
+        <v>0.995994846893131</v>
+      </c>
+      <c r="E24">
+        <v>1.003304252380399</v>
+      </c>
+      <c r="F24">
+        <v>0.9984980665675514</v>
+      </c>
+      <c r="G24">
+        <v>0.9984980665675514</v>
+      </c>
+      <c r="H24">
+        <v>1.006007732561564</v>
+      </c>
+      <c r="I24">
+        <v>1.006007732561564</v>
+      </c>
+      <c r="J24">
+        <v>0.9984980665675514</v>
+      </c>
+      <c r="K24">
+        <v>0.9984980665675514</v>
+      </c>
+      <c r="L24">
+        <v>0.9984980665675514</v>
+      </c>
+      <c r="M24">
+        <v>1.002252899564557</v>
+      </c>
+      <c r="N24">
+        <v>1.002252899564557</v>
+      </c>
+      <c r="O24">
+        <v>1.002603350503171</v>
+      </c>
+      <c r="P24">
+        <v>1.001001288565555</v>
+      </c>
+      <c r="Q24">
+        <v>1.001001288565555</v>
+      </c>
+      <c r="R24">
+        <v>1.000375483066054</v>
+      </c>
+      <c r="S24">
+        <v>1.000375483066054</v>
+      </c>
+      <c r="T24">
+        <v>1.000133505256291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9996122236349583</v>
+      </c>
+      <c r="D25">
+        <v>0.9989659182172428</v>
+      </c>
+      <c r="E25">
+        <v>1.000853110027781</v>
+      </c>
+      <c r="F25">
+        <v>0.9996122236349583</v>
+      </c>
+      <c r="G25">
+        <v>0.9996122236349583</v>
+      </c>
+      <c r="H25">
+        <v>1.001551118814635</v>
+      </c>
+      <c r="I25">
+        <v>1.001551118814635</v>
+      </c>
+      <c r="J25">
+        <v>0.9996122236349583</v>
+      </c>
+      <c r="K25">
+        <v>0.9996122236349583</v>
+      </c>
+      <c r="L25">
+        <v>0.9996122236349583</v>
+      </c>
+      <c r="M25">
+        <v>1.000581671224797</v>
+      </c>
+      <c r="N25">
+        <v>1.000581671224797</v>
+      </c>
+      <c r="O25">
+        <v>1.000672150825791</v>
+      </c>
+      <c r="P25">
+        <v>1.000258522028184</v>
+      </c>
+      <c r="Q25">
+        <v>1.000258522028184</v>
+      </c>
+      <c r="R25">
+        <v>1.000096947429878</v>
+      </c>
+      <c r="S25">
+        <v>1.000096947429878</v>
+      </c>
+      <c r="T25">
+        <v>1.000034469660756</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9984981641398782</v>
+      </c>
+      <c r="D26">
+        <v>0.9959951328860016</v>
+      </c>
+      <c r="E26">
+        <v>1.003304018664318</v>
+      </c>
+      <c r="F26">
+        <v>0.9984981641398782</v>
+      </c>
+      <c r="G26">
+        <v>0.9984981641398782</v>
+      </c>
+      <c r="H26">
+        <v>1.006007306339125</v>
+      </c>
+      <c r="I26">
+        <v>1.006007306339125</v>
+      </c>
+      <c r="J26">
+        <v>0.9984981641398782</v>
+      </c>
+      <c r="K26">
+        <v>0.9984981641398782</v>
+      </c>
+      <c r="L26">
+        <v>0.9984981641398782</v>
+      </c>
+      <c r="M26">
+        <v>1.002252735239502</v>
+      </c>
+      <c r="N26">
+        <v>1.002252735239502</v>
+      </c>
+      <c r="O26">
+        <v>1.002603163047774</v>
+      </c>
+      <c r="P26">
+        <v>1.001001211539627</v>
+      </c>
+      <c r="Q26">
+        <v>1.001001211539627</v>
+      </c>
+      <c r="R26">
+        <v>1.00037544968969</v>
+      </c>
+      <c r="S26">
+        <v>1.00037544968969</v>
+      </c>
+      <c r="T26">
+        <v>1.00013349171818</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9996122454127948</v>
+      </c>
+      <c r="D27">
+        <v>0.9989659978780547</v>
+      </c>
+      <c r="E27">
+        <v>1.00085305578587</v>
+      </c>
+      <c r="F27">
+        <v>0.9996122454127948</v>
+      </c>
+      <c r="G27">
+        <v>0.9996122454127948</v>
+      </c>
+      <c r="H27">
+        <v>1.001551005564818</v>
+      </c>
+      <c r="I27">
+        <v>1.001551005564818</v>
+      </c>
+      <c r="J27">
+        <v>0.9996122454127948</v>
+      </c>
+      <c r="K27">
+        <v>0.9996122454127948</v>
+      </c>
+      <c r="L27">
+        <v>0.9996122454127948</v>
+      </c>
+      <c r="M27">
+        <v>1.000581625488806</v>
+      </c>
+      <c r="N27">
+        <v>1.000581625488806</v>
+      </c>
+      <c r="O27">
+        <v>1.000672102254494</v>
+      </c>
+      <c r="P27">
+        <v>1.000258498796803</v>
+      </c>
+      <c r="Q27">
+        <v>1.000258498796803</v>
+      </c>
+      <c r="R27">
+        <v>1.000096935450801</v>
+      </c>
+      <c r="S27">
+        <v>1.000096935450801</v>
+      </c>
+      <c r="T27">
+        <v>1.000034465911188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.003632228115505</v>
+      </c>
+      <c r="D28">
+        <v>1.009685944633092</v>
+      </c>
+      <c r="E28">
+        <v>0.992009099623428</v>
+      </c>
+      <c r="F28">
+        <v>1.003632228115505</v>
+      </c>
+      <c r="G28">
+        <v>1.003632228115505</v>
+      </c>
+      <c r="H28">
+        <v>0.9854710904915405</v>
+      </c>
+      <c r="I28">
+        <v>0.9854710904915405</v>
+      </c>
+      <c r="J28">
+        <v>1.003632228115505</v>
+      </c>
+      <c r="K28">
+        <v>1.003632228115505</v>
+      </c>
+      <c r="L28">
+        <v>1.003632228115505</v>
+      </c>
+      <c r="M28">
+        <v>0.9945516593035229</v>
+      </c>
+      <c r="N28">
+        <v>0.9945516593035229</v>
+      </c>
+      <c r="O28">
+        <v>0.9937041394101579</v>
+      </c>
+      <c r="P28">
+        <v>0.9975785155741836</v>
+      </c>
+      <c r="Q28">
+        <v>0.9975785155741836</v>
+      </c>
+      <c r="R28">
+        <v>0.999091943709514</v>
+      </c>
+      <c r="S28">
+        <v>0.999091943709514</v>
+      </c>
+      <c r="T28">
+        <v>0.9996771365157627</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.00297223705002</v>
+      </c>
+      <c r="D29">
+        <v>1.007925963976742</v>
+      </c>
+      <c r="E29">
+        <v>0.9934610820502473</v>
+      </c>
+      <c r="F29">
+        <v>1.00297223705002</v>
+      </c>
+      <c r="G29">
+        <v>1.00297223705002</v>
+      </c>
+      <c r="H29">
+        <v>0.9881110589038758</v>
+      </c>
+      <c r="I29">
+        <v>0.9881110589038758</v>
+      </c>
+      <c r="J29">
+        <v>1.00297223705002</v>
+      </c>
+      <c r="K29">
+        <v>1.00297223705002</v>
+      </c>
+      <c r="L29">
+        <v>1.00297223705002</v>
+      </c>
+      <c r="M29">
+        <v>0.9955416479769477</v>
+      </c>
+      <c r="N29">
+        <v>0.9955416479769477</v>
+      </c>
+      <c r="O29">
+        <v>0.994848126001381</v>
+      </c>
+      <c r="P29">
+        <v>0.998018511001305</v>
+      </c>
+      <c r="Q29">
+        <v>0.998018511001305</v>
+      </c>
+      <c r="R29">
+        <v>0.9992569425134836</v>
+      </c>
+      <c r="S29">
+        <v>0.9992569425134836</v>
+      </c>
+      <c r="T29">
+        <v>0.9997358026801538</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.001645131292946</v>
+      </c>
+      <c r="D30">
+        <v>1.004387009010195</v>
+      </c>
+      <c r="E30">
+        <v>0.996380718309807</v>
+      </c>
+      <c r="F30">
+        <v>1.001645131292946</v>
+      </c>
+      <c r="G30">
+        <v>1.001645131292946</v>
+      </c>
+      <c r="H30">
+        <v>0.9934194870151687</v>
+      </c>
+      <c r="I30">
+        <v>0.9934194870151687</v>
+      </c>
+      <c r="J30">
+        <v>1.001645131292946</v>
+      </c>
+      <c r="K30">
+        <v>1.001645131292946</v>
+      </c>
+      <c r="L30">
+        <v>1.001645131292946</v>
+      </c>
+      <c r="M30">
+        <v>0.9975323091540574</v>
+      </c>
+      <c r="N30">
+        <v>0.9975323091540574</v>
+      </c>
+      <c r="O30">
+        <v>0.9971484455393073</v>
+      </c>
+      <c r="P30">
+        <v>0.9989032498670204</v>
+      </c>
+      <c r="Q30">
+        <v>0.9989032498670204</v>
+      </c>
+      <c r="R30">
+        <v>0.9995887202235019</v>
+      </c>
+      <c r="S30">
+        <v>0.9995887202235019</v>
+      </c>
+      <c r="T30">
+        <v>0.9998537680356682</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.001795852862132</v>
+      </c>
+      <c r="D31">
+        <v>1.004788923640935</v>
+      </c>
+      <c r="E31">
+        <v>0.9960491349023838</v>
+      </c>
+      <c r="F31">
+        <v>1.001795852862132</v>
+      </c>
+      <c r="G31">
+        <v>1.001795852862132</v>
+      </c>
+      <c r="H31">
+        <v>0.9928166135872998</v>
+      </c>
+      <c r="I31">
+        <v>0.9928166135872998</v>
+      </c>
+      <c r="J31">
+        <v>1.001795852862132</v>
+      </c>
+      <c r="K31">
+        <v>1.001795852862132</v>
+      </c>
+      <c r="L31">
+        <v>1.001795852862132</v>
+      </c>
+      <c r="M31">
+        <v>0.9973062332247161</v>
+      </c>
+      <c r="N31">
+        <v>0.9973062332247161</v>
+      </c>
+      <c r="O31">
+        <v>0.9968872004506054</v>
+      </c>
+      <c r="P31">
+        <v>0.9988027731038548</v>
+      </c>
+      <c r="Q31">
+        <v>0.9988027731038548</v>
+      </c>
+      <c r="R31">
+        <v>0.9995510430434242</v>
+      </c>
+      <c r="S31">
+        <v>0.9995510430434242</v>
+      </c>
+      <c r="T31">
+        <v>0.9998403717861692</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.004297897260274</v>
+      </c>
+      <c r="D32">
+        <v>1.011461067123287</v>
+      </c>
+      <c r="E32">
+        <v>0.9905446256164382</v>
+      </c>
+      <c r="F32">
+        <v>1.004297897260274</v>
+      </c>
+      <c r="G32">
+        <v>1.004297897260274</v>
+      </c>
+      <c r="H32">
+        <v>0.9828084100000002</v>
+      </c>
+      <c r="I32">
+        <v>0.9828084100000002</v>
+      </c>
+      <c r="J32">
+        <v>1.004297897260274</v>
+      </c>
+      <c r="K32">
+        <v>1.004297897260274</v>
+      </c>
+      <c r="L32">
+        <v>1.004297897260274</v>
+      </c>
+      <c r="M32">
+        <v>0.993553153630137</v>
+      </c>
+      <c r="N32">
+        <v>0.993553153630137</v>
+      </c>
+      <c r="O32">
+        <v>0.992550310958904</v>
+      </c>
+      <c r="P32">
+        <v>0.9971347348401826</v>
+      </c>
+      <c r="Q32">
+        <v>0.9971347348401826</v>
+      </c>
+      <c r="R32">
+        <v>0.9989255254452054</v>
+      </c>
+      <c r="S32">
+        <v>0.9989255254452054</v>
+      </c>
+      <c r="T32">
+        <v>0.9996179657534245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.001941594736842</v>
+      </c>
+      <c r="D33">
+        <v>1.005177570526316</v>
+      </c>
+      <c r="E33">
+        <v>0.9957285084210525</v>
+      </c>
+      <c r="F33">
+        <v>1.001941594736842</v>
+      </c>
+      <c r="G33">
+        <v>1.001941594736842</v>
+      </c>
+      <c r="H33">
+        <v>0.992233654736842</v>
+      </c>
+      <c r="I33">
+        <v>0.992233654736842</v>
+      </c>
+      <c r="J33">
+        <v>1.001941594736842</v>
+      </c>
+      <c r="K33">
+        <v>1.001941594736842</v>
+      </c>
+      <c r="L33">
+        <v>1.001941594736842</v>
+      </c>
+      <c r="M33">
+        <v>0.9970876247368421</v>
+      </c>
+      <c r="N33">
+        <v>0.9970876247368421</v>
+      </c>
+      <c r="O33">
+        <v>0.9966345859649123</v>
+      </c>
+      <c r="P33">
+        <v>0.9987056147368421</v>
+      </c>
+      <c r="Q33">
+        <v>0.9987056147368421</v>
+      </c>
+      <c r="R33">
+        <v>0.9995146097368421</v>
+      </c>
+      <c r="S33">
+        <v>0.9995146097368421</v>
+      </c>
+      <c r="T33">
+        <v>0.9998274196491228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.001941502105263</v>
+      </c>
+      <c r="D34">
+        <v>1.005177319473684</v>
+      </c>
+      <c r="E34">
+        <v>0.9957287047368423</v>
+      </c>
+      <c r="F34">
+        <v>1.001941502105263</v>
+      </c>
+      <c r="G34">
+        <v>1.001941502105263</v>
+      </c>
+      <c r="H34">
+        <v>0.9922340194736842</v>
+      </c>
+      <c r="I34">
+        <v>0.9922340194736842</v>
+      </c>
+      <c r="J34">
+        <v>1.001941502105263</v>
+      </c>
+      <c r="K34">
+        <v>1.001941502105263</v>
+      </c>
+      <c r="L34">
+        <v>1.001941502105263</v>
+      </c>
+      <c r="M34">
+        <v>0.9970877607894735</v>
+      </c>
+      <c r="N34">
+        <v>0.9970877607894735</v>
+      </c>
+      <c r="O34">
+        <v>0.9966347421052631</v>
+      </c>
+      <c r="P34">
+        <v>0.9987056745614034</v>
+      </c>
+      <c r="Q34">
+        <v>0.9987056745614034</v>
+      </c>
+      <c r="R34">
+        <v>0.9995146314473682</v>
+      </c>
+      <c r="S34">
+        <v>0.9995146314473682</v>
+      </c>
+      <c r="T34">
+        <v>0.9998274249999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.006536407967167</v>
+      </c>
+      <c r="D35">
+        <v>1.017430349502477</v>
+      </c>
+      <c r="E35">
+        <v>0.9856199511768708</v>
+      </c>
+      <c r="F35">
+        <v>1.006536407967167</v>
+      </c>
+      <c r="G35">
+        <v>1.006536407967167</v>
+      </c>
+      <c r="H35">
+        <v>0.9738544553948659</v>
+      </c>
+      <c r="I35">
+        <v>0.9738544553948659</v>
+      </c>
+      <c r="J35">
+        <v>1.006536407967167</v>
+      </c>
+      <c r="K35">
+        <v>1.006536407967167</v>
+      </c>
+      <c r="L35">
+        <v>1.006536407967167</v>
+      </c>
+      <c r="M35">
+        <v>0.9901954316810166</v>
+      </c>
+      <c r="N35">
+        <v>0.9901954316810166</v>
+      </c>
+      <c r="O35">
+        <v>0.988670271512968</v>
+      </c>
+      <c r="P35">
+        <v>0.9956424237764002</v>
+      </c>
+      <c r="Q35">
+        <v>0.9956424237764002</v>
+      </c>
+      <c r="R35">
+        <v>0.998365919824092</v>
+      </c>
+      <c r="S35">
+        <v>0.998365919824092</v>
+      </c>
+      <c r="T35">
+        <v>0.9994189966626194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000000769575537</v>
+      </c>
+      <c r="D36">
+        <v>1.000002051973211</v>
+      </c>
+      <c r="E36">
+        <v>0.9999983073680061</v>
+      </c>
+      <c r="F36">
+        <v>1.000000769575537</v>
+      </c>
+      <c r="G36">
+        <v>1.000000769575537</v>
+      </c>
+      <c r="H36">
+        <v>0.9999969241962288</v>
+      </c>
+      <c r="I36">
+        <v>0.9999969241962288</v>
+      </c>
+      <c r="J36">
+        <v>1.000000769575537</v>
+      </c>
+      <c r="K36">
+        <v>1.000000769575537</v>
+      </c>
+      <c r="L36">
+        <v>1.000000769575537</v>
+      </c>
+      <c r="M36">
+        <v>0.9999988468858829</v>
+      </c>
+      <c r="N36">
+        <v>0.9999988468858829</v>
+      </c>
+      <c r="O36">
+        <v>0.9999986670465907</v>
+      </c>
+      <c r="P36">
+        <v>0.9999994877824343</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999994877824343</v>
+      </c>
+      <c r="R36">
+        <v>0.99999980823071</v>
+      </c>
+      <c r="S36">
+        <v>0.99999980823071</v>
+      </c>
+      <c r="T36">
+        <v>0.9999999320440095</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000016285896783</v>
+      </c>
+      <c r="D37">
+        <v>1.00004342935799</v>
+      </c>
+      <c r="E37">
+        <v>0.99996417135028</v>
+      </c>
+      <c r="F37">
+        <v>1.000016285896783</v>
+      </c>
+      <c r="G37">
+        <v>1.000016285896783</v>
+      </c>
+      <c r="H37">
+        <v>0.999934858927486</v>
+      </c>
+      <c r="I37">
+        <v>0.999934858927486</v>
+      </c>
+      <c r="J37">
+        <v>1.000016285896783</v>
+      </c>
+      <c r="K37">
+        <v>1.000016285896783</v>
+      </c>
+      <c r="L37">
+        <v>1.000016285896783</v>
+      </c>
+      <c r="M37">
+        <v>0.9999755724121346</v>
+      </c>
+      <c r="N37">
+        <v>0.9999755724121346</v>
+      </c>
+      <c r="O37">
+        <v>0.9999717720581831</v>
+      </c>
+      <c r="P37">
+        <v>0.9999891435736842</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999891435736842</v>
+      </c>
+      <c r="R37">
+        <v>0.9999959291544589</v>
+      </c>
+      <c r="S37">
+        <v>0.9999959291544589</v>
+      </c>
+      <c r="T37">
+        <v>0.9999985528876842</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000057337185809</v>
+      </c>
+      <c r="D38">
+        <v>1.000152898470508</v>
+      </c>
+      <c r="E38">
+        <v>0.9998738614954837</v>
+      </c>
+      <c r="F38">
+        <v>1.000057337185809</v>
+      </c>
+      <c r="G38">
+        <v>1.000057337185809</v>
+      </c>
+      <c r="H38">
+        <v>0.9997706566496875</v>
+      </c>
+      <c r="I38">
+        <v>0.9997706566496875</v>
+      </c>
+      <c r="J38">
+        <v>1.000057337185809</v>
+      </c>
+      <c r="K38">
+        <v>1.000057337185809</v>
+      </c>
+      <c r="L38">
+        <v>1.000057337185809</v>
+      </c>
+      <c r="M38">
+        <v>0.9999139969177484</v>
+      </c>
+      <c r="N38">
+        <v>0.9999139969177484</v>
+      </c>
+      <c r="O38">
+        <v>0.9999006184436602</v>
+      </c>
+      <c r="P38">
+        <v>0.9999617770071021</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999617770071021</v>
+      </c>
+      <c r="R38">
+        <v>0.9999856670517788</v>
+      </c>
+      <c r="S38">
+        <v>0.9999856670517788</v>
+      </c>
+      <c r="T38">
+        <v>0.9999949046955178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000134324090214</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000358185263787</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9997044973967683</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000134324090214</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000134324090214</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9994627191902316</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9994627191902316</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000134324090214</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000134324090214</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000134324090214</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9997985216402228</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9997985216402228</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9997671802257379</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.99991045579022</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.99991045579022</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999664228652185</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999664228652185</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999880623535714</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.000612088006515</v>
+      </c>
+      <c r="D40">
+        <v>1.001632231608403</v>
+      </c>
+      <c r="E40">
+        <v>0.9986534106770185</v>
+      </c>
+      <c r="F40">
+        <v>1.000612088006515</v>
+      </c>
+      <c r="G40">
+        <v>1.000612088006515</v>
+      </c>
+      <c r="H40">
+        <v>0.9975516571293739</v>
+      </c>
+      <c r="I40">
+        <v>0.9975516571293739</v>
+      </c>
+      <c r="J40">
+        <v>1.000612088006515</v>
+      </c>
+      <c r="K40">
+        <v>1.000612088006515</v>
+      </c>
+      <c r="L40">
+        <v>1.000612088006515</v>
+      </c>
+      <c r="M40">
+        <v>0.9990818725679442</v>
+      </c>
+      <c r="N40">
+        <v>0.9990818725679442</v>
+      </c>
+      <c r="O40">
+        <v>0.9989390519376357</v>
+      </c>
+      <c r="P40">
+        <v>0.9995919443808011</v>
+      </c>
+      <c r="Q40">
+        <v>0.9995919443808011</v>
+      </c>
+      <c r="R40">
+        <v>0.9998469802872294</v>
+      </c>
+      <c r="S40">
+        <v>0.9998469802872294</v>
+      </c>
+      <c r="T40">
+        <v>0.9999455939057232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9996407833790024</v>
+      </c>
+      <c r="D41">
+        <v>0.9990420910168674</v>
+      </c>
+      <c r="E41">
+        <v>1.000790274608312</v>
+      </c>
+      <c r="F41">
+        <v>0.9996407833790024</v>
+      </c>
+      <c r="G41">
+        <v>0.9996407833790024</v>
+      </c>
+      <c r="H41">
+        <v>1.001436866151106</v>
+      </c>
+      <c r="I41">
+        <v>1.001436866151106</v>
+      </c>
+      <c r="J41">
+        <v>0.9996407833790024</v>
+      </c>
+      <c r="K41">
+        <v>0.9996407833790024</v>
+      </c>
+      <c r="L41">
+        <v>0.9996407833790024</v>
+      </c>
+      <c r="M41">
+        <v>1.000538824765054</v>
+      </c>
+      <c r="N41">
+        <v>1.000538824765054</v>
+      </c>
+      <c r="O41">
+        <v>1.000622641379474</v>
+      </c>
+      <c r="P41">
+        <v>1.00023947763637</v>
+      </c>
+      <c r="Q41">
+        <v>1.00023947763637</v>
+      </c>
+      <c r="R41">
+        <v>1.000089804072028</v>
+      </c>
+      <c r="S41">
+        <v>1.000089804072028</v>
+      </c>
+      <c r="T41">
+        <v>1.000031930318882</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.002380660059718</v>
+      </c>
+      <c r="D42">
+        <v>1.006348426080002</v>
+      </c>
+      <c r="E42">
+        <v>0.9947625528695087</v>
+      </c>
+      <c r="F42">
+        <v>1.002380660059718</v>
+      </c>
+      <c r="G42">
+        <v>1.002380660059718</v>
+      </c>
+      <c r="H42">
+        <v>0.9904773687303632</v>
+      </c>
+      <c r="I42">
+        <v>0.9904773687303632</v>
+      </c>
+      <c r="J42">
+        <v>1.002380660059718</v>
+      </c>
+      <c r="K42">
+        <v>1.002380660059718</v>
+      </c>
+      <c r="L42">
+        <v>1.002380660059718</v>
+      </c>
+      <c r="M42">
+        <v>0.9964290143950404</v>
+      </c>
+      <c r="N42">
+        <v>0.9964290143950404</v>
+      </c>
+      <c r="O42">
+        <v>0.9958735272198632</v>
+      </c>
+      <c r="P42">
+        <v>0.998412896283266</v>
+      </c>
+      <c r="Q42">
+        <v>0.998412896283266</v>
+      </c>
+      <c r="R42">
+        <v>0.9994048372273789</v>
+      </c>
+      <c r="S42">
+        <v>0.9994048372273789</v>
+      </c>
+      <c r="T42">
+        <v>0.9997883879765043</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW45.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000186220696273</v>
+        <v>1.000033839275384</v>
       </c>
       <c r="D3">
-        <v>0.999255119046439</v>
+        <v>1.000090237688475</v>
       </c>
       <c r="E3">
-        <v>1.000186220696273</v>
+        <v>0.9999255538080086</v>
       </c>
       <c r="F3">
-        <v>1.000186220696273</v>
+        <v>1.000033839275384</v>
       </c>
       <c r="G3">
-        <v>1.000496588770302</v>
+        <v>1.000033839275384</v>
       </c>
       <c r="H3">
-        <v>0.9995903142823279</v>
+        <v>0.9998646451299626</v>
       </c>
       <c r="I3">
-        <v>1.000186220696273</v>
+        <v>0.9998646451299626</v>
       </c>
       <c r="J3">
-        <v>0.999255119046439</v>
+        <v>1.000033839275384</v>
       </c>
       <c r="K3">
-        <v>1.000186220696273</v>
+        <v>1.000033839275384</v>
       </c>
       <c r="L3">
-        <v>1.000186220696273</v>
+        <v>1.000033839275384</v>
       </c>
       <c r="M3">
-        <v>0.9997206698713559</v>
+        <v>0.9999492422026734</v>
       </c>
       <c r="N3">
-        <v>0.9997206698713559</v>
+        <v>0.9999492422026734</v>
       </c>
       <c r="O3">
-        <v>0.9996772180083466</v>
+        <v>0.9999413460711185</v>
       </c>
       <c r="P3">
-        <v>0.9998758534796615</v>
+        <v>0.9999774412269105</v>
       </c>
       <c r="Q3">
-        <v>0.9998758534796615</v>
+        <v>0.9999774412269105</v>
       </c>
       <c r="R3">
-        <v>0.9999534452838144</v>
+        <v>0.999991540739029</v>
       </c>
       <c r="S3">
-        <v>0.9999534452838144</v>
+        <v>0.999991540739029</v>
       </c>
       <c r="T3">
-        <v>0.9999834473646478</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+        <v>0.9999969924087666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000359495711253</v>
+        <v>1.000612088006515</v>
       </c>
       <c r="D4">
-        <v>0.9985620162466361</v>
+        <v>1.001632231608403</v>
       </c>
       <c r="E4">
-        <v>1.000359495711253</v>
+        <v>0.9986534106770185</v>
       </c>
       <c r="F4">
-        <v>1.000359495711253</v>
+        <v>1.000612088006515</v>
       </c>
       <c r="G4">
-        <v>1.000958658147354</v>
+        <v>1.000612088006515</v>
       </c>
       <c r="H4">
-        <v>0.9992091084844512</v>
+        <v>0.9975516571293739</v>
       </c>
       <c r="I4">
-        <v>1.000359495711253</v>
+        <v>0.9975516571293739</v>
       </c>
       <c r="J4">
-        <v>0.9985620162466361</v>
+        <v>1.000612088006515</v>
       </c>
       <c r="K4">
-        <v>1.000359495711253</v>
+        <v>1.000612088006515</v>
       </c>
       <c r="L4">
-        <v>1.000359495711253</v>
+        <v>1.000612088006515</v>
       </c>
       <c r="M4">
-        <v>0.9994607559789446</v>
+        <v>0.9990818725679442</v>
       </c>
       <c r="N4">
-        <v>0.9994607559789446</v>
+        <v>0.9990818725679442</v>
       </c>
       <c r="O4">
-        <v>0.9993768734807801</v>
+        <v>0.9989390519376357</v>
       </c>
       <c r="P4">
-        <v>0.9997603358897141</v>
+        <v>0.9995919443808011</v>
       </c>
       <c r="Q4">
-        <v>0.9997603358897141</v>
+        <v>0.9995919443808011</v>
       </c>
       <c r="R4">
-        <v>0.9999101258450989</v>
+        <v>0.9998469802872294</v>
       </c>
       <c r="S4">
-        <v>0.9999101258450989</v>
+        <v>0.9998469802872294</v>
       </c>
       <c r="T4">
-        <v>0.9999680450020335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+        <v>0.9999455939057232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000688934744178</v>
+        <v>1.00194845585015</v>
       </c>
       <c r="D5">
-        <v>0.9972442801492186</v>
+        <v>1.00519586911383</v>
       </c>
       <c r="E5">
-        <v>1.000688934744178</v>
+        <v>0.9957134066570609</v>
       </c>
       <c r="F5">
-        <v>1.000688934744178</v>
+        <v>1.00194845585015</v>
       </c>
       <c r="G5">
-        <v>1.001837143322659</v>
+        <v>1.00194845585015</v>
       </c>
       <c r="H5">
-        <v>0.9984843550807377</v>
+        <v>0.9922061952665672</v>
       </c>
       <c r="I5">
-        <v>1.000688934744178</v>
+        <v>0.9922061952665672</v>
       </c>
       <c r="J5">
-        <v>0.9972442801492186</v>
+        <v>1.00194845585015</v>
       </c>
       <c r="K5">
-        <v>1.000688934744178</v>
+        <v>1.00194845585015</v>
       </c>
       <c r="L5">
-        <v>1.000688934744178</v>
+        <v>1.00194845585015</v>
       </c>
       <c r="M5">
-        <v>0.9989666074466983</v>
+        <v>0.9970773255583587</v>
       </c>
       <c r="N5">
-        <v>0.9989666074466983</v>
+        <v>0.9970773255583587</v>
       </c>
       <c r="O5">
-        <v>0.9988058566580448</v>
+        <v>0.9966226859245927</v>
       </c>
       <c r="P5">
-        <v>0.9995407165458582</v>
+        <v>0.9987010356556225</v>
       </c>
       <c r="Q5">
-        <v>0.9995407165458582</v>
+        <v>0.9987010356556225</v>
       </c>
       <c r="R5">
-        <v>0.9998277710954381</v>
+        <v>0.9995128907042544</v>
       </c>
       <c r="S5">
-        <v>0.9998277710954381</v>
+        <v>0.9995128907042544</v>
       </c>
       <c r="T5">
-        <v>0.9999387637975247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+        <v>0.9998268064313182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.001010433745963</v>
+        <v>1.006536407967167</v>
       </c>
       <c r="D6">
-        <v>0.9959582377523093</v>
+        <v>1.017430349502477</v>
       </c>
       <c r="E6">
-        <v>1.001010433745963</v>
+        <v>0.9856199511768708</v>
       </c>
       <c r="F6">
-        <v>1.001010433745963</v>
+        <v>1.006536407967167</v>
       </c>
       <c r="G6">
-        <v>1.002694509964751</v>
+        <v>1.006536407967167</v>
       </c>
       <c r="H6">
-        <v>0.9977770334652303</v>
+        <v>0.9738544553948659</v>
       </c>
       <c r="I6">
-        <v>1.001010433745963</v>
+        <v>0.9738544553948659</v>
       </c>
       <c r="J6">
-        <v>0.9959582377523093</v>
+        <v>1.006536407967167</v>
       </c>
       <c r="K6">
-        <v>1.001010433745963</v>
+        <v>1.006536407967167</v>
       </c>
       <c r="L6">
-        <v>1.001010433745963</v>
+        <v>1.006536407967167</v>
       </c>
       <c r="M6">
-        <v>0.998484335749136</v>
+        <v>0.9901954316810166</v>
       </c>
       <c r="N6">
-        <v>0.998484335749136</v>
+        <v>0.9901954316810166</v>
       </c>
       <c r="O6">
-        <v>0.9982485683211674</v>
+        <v>0.988670271512968</v>
       </c>
       <c r="P6">
-        <v>0.9993263684147449</v>
+        <v>0.9956424237764002</v>
       </c>
       <c r="Q6">
-        <v>0.9993263684147449</v>
+        <v>0.9956424237764002</v>
       </c>
       <c r="R6">
-        <v>0.9997473847475493</v>
+        <v>0.998365919824092</v>
       </c>
       <c r="S6">
-        <v>0.9997473847475493</v>
+        <v>0.998365919824092</v>
       </c>
       <c r="T6">
-        <v>0.9999101804033631</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>0.9994189966626194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000013276889647</v>
+        <v>1.00020332152893</v>
       </c>
       <c r="D7">
-        <v>0.9999468952416058</v>
+        <v>1.000542191497408</v>
       </c>
       <c r="E7">
-        <v>1.000013276889647</v>
+        <v>0.9995526921759467</v>
       </c>
       <c r="F7">
-        <v>1.000013276889647</v>
+        <v>1.00020332152893</v>
       </c>
       <c r="G7">
-        <v>1.00003540446517</v>
+        <v>1.00020332152893</v>
       </c>
       <c r="H7">
-        <v>0.9999707914599549</v>
+        <v>0.9991867150210981</v>
       </c>
       <c r="I7">
-        <v>1.000013276889647</v>
+        <v>0.9991867150210981</v>
       </c>
       <c r="J7">
-        <v>0.9999468952416058</v>
+        <v>1.00020332152893</v>
       </c>
       <c r="K7">
-        <v>1.000013276889647</v>
+        <v>1.00020332152893</v>
       </c>
       <c r="L7">
-        <v>1.000013276889647</v>
+        <v>1.00020332152893</v>
       </c>
       <c r="M7">
-        <v>0.9999800860656265</v>
+        <v>0.9996950182750139</v>
       </c>
       <c r="N7">
-        <v>0.9999800860656265</v>
+        <v>0.9996950182750139</v>
       </c>
       <c r="O7">
-        <v>0.9999769878637359</v>
+        <v>0.9996475762419915</v>
       </c>
       <c r="P7">
-        <v>0.9999911496736335</v>
+        <v>0.9998644526929859</v>
       </c>
       <c r="Q7">
-        <v>0.9999911496736335</v>
+        <v>0.9998644526929859</v>
       </c>
       <c r="R7">
-        <v>0.9999966814776369</v>
+        <v>0.9999491699019718</v>
       </c>
       <c r="S7">
-        <v>0.9999966814776369</v>
+        <v>0.9999491699019718</v>
       </c>
       <c r="T7">
-        <v>0.9999988203059454</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>0.9999819272135402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000033839275384</v>
+        <v>1.000016285896783</v>
       </c>
       <c r="D8">
-        <v>0.9998646451299625</v>
+        <v>1.00004342935799</v>
       </c>
       <c r="E8">
-        <v>1.000033839275384</v>
+        <v>0.99996417135028</v>
       </c>
       <c r="F8">
-        <v>1.000033839275384</v>
+        <v>1.000016285896783</v>
       </c>
       <c r="G8">
-        <v>1.000090237688475</v>
+        <v>1.000016285896783</v>
       </c>
       <c r="H8">
-        <v>0.9999255538080084</v>
+        <v>0.999934858927486</v>
       </c>
       <c r="I8">
-        <v>1.000033839275384</v>
+        <v>0.999934858927486</v>
       </c>
       <c r="J8">
-        <v>0.9998646451299625</v>
+        <v>1.000016285896783</v>
       </c>
       <c r="K8">
-        <v>1.000033839275384</v>
+        <v>1.000016285896783</v>
       </c>
       <c r="L8">
-        <v>1.000033839275384</v>
+        <v>1.000016285896783</v>
       </c>
       <c r="M8">
-        <v>0.9999492422026734</v>
+        <v>0.9999755724121346</v>
       </c>
       <c r="N8">
-        <v>0.9999492422026734</v>
+        <v>0.9999755724121346</v>
       </c>
       <c r="O8">
-        <v>0.9999413460711185</v>
+        <v>0.9999717720581831</v>
       </c>
       <c r="P8">
-        <v>0.9999774412269105</v>
+        <v>0.9999891435736842</v>
       </c>
       <c r="Q8">
-        <v>0.9999774412269105</v>
+        <v>0.9999891435736842</v>
       </c>
       <c r="R8">
-        <v>0.999991540739029</v>
+        <v>0.9999959291544589</v>
       </c>
       <c r="S8">
-        <v>0.999991540739029</v>
+        <v>0.9999959291544589</v>
       </c>
       <c r="T8">
-        <v>0.9999969924087666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>0.9999985528876842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000047379367409</v>
+        <v>1.000359495711253</v>
       </c>
       <c r="D9">
-        <v>0.9998104834913281</v>
+        <v>1.000958658147354</v>
       </c>
       <c r="E9">
-        <v>1.000047379367409</v>
+        <v>0.9992091084844512</v>
       </c>
       <c r="F9">
-        <v>1.000047379367409</v>
+        <v>1.000359495711253</v>
       </c>
       <c r="G9">
-        <v>1.000126345535558</v>
+        <v>1.000359495711253</v>
       </c>
       <c r="H9">
-        <v>0.9998957656734142</v>
+        <v>0.9985620162466361</v>
       </c>
       <c r="I9">
-        <v>1.000047379367409</v>
+        <v>0.9985620162466361</v>
       </c>
       <c r="J9">
-        <v>0.9998104834913281</v>
+        <v>1.000359495711253</v>
       </c>
       <c r="K9">
-        <v>1.000047379367409</v>
+        <v>1.000359495711253</v>
       </c>
       <c r="L9">
-        <v>1.000047379367409</v>
+        <v>1.000359495711253</v>
       </c>
       <c r="M9">
-        <v>0.9999289314293687</v>
+        <v>0.9994607559789446</v>
       </c>
       <c r="N9">
-        <v>0.9999289314293687</v>
+        <v>0.9994607559789446</v>
       </c>
       <c r="O9">
-        <v>0.9999178761773839</v>
+        <v>0.9993768734807801</v>
       </c>
       <c r="P9">
-        <v>0.9999684140753823</v>
+        <v>0.9997603358897141</v>
       </c>
       <c r="Q9">
-        <v>0.9999684140753823</v>
+        <v>0.9997603358897141</v>
       </c>
       <c r="R9">
-        <v>0.999988155398389</v>
+        <v>0.9999101258450989</v>
       </c>
       <c r="S9">
-        <v>0.999988155398389</v>
+        <v>0.9999101258450989</v>
       </c>
       <c r="T9">
-        <v>0.9999957888004213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>0.9999680450020335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000102161672891</v>
+        <v>1.006633693420423</v>
       </c>
       <c r="D10">
-        <v>0.9995913560484081</v>
+        <v>1.017689774119754</v>
       </c>
       <c r="E10">
-        <v>1.000102161672891</v>
+        <v>0.9854059253894013</v>
       </c>
       <c r="F10">
-        <v>1.000102161672891</v>
+        <v>1.006633693420423</v>
       </c>
       <c r="G10">
-        <v>1.000272430121526</v>
+        <v>1.006633693420423</v>
       </c>
       <c r="H10">
-        <v>0.9997752447787634</v>
+        <v>0.9734653173481661</v>
       </c>
       <c r="I10">
-        <v>1.000102161672891</v>
+        <v>0.9734653173481661</v>
       </c>
       <c r="J10">
-        <v>0.9995913560484081</v>
+        <v>1.006633693420423</v>
       </c>
       <c r="K10">
-        <v>1.000102161672891</v>
+        <v>1.006633693420423</v>
       </c>
       <c r="L10">
-        <v>1.000102161672891</v>
+        <v>1.006633693420423</v>
       </c>
       <c r="M10">
-        <v>0.9998467588606494</v>
+        <v>0.9900495053842946</v>
       </c>
       <c r="N10">
-        <v>0.9998467588606494</v>
+        <v>0.9900495053842946</v>
       </c>
       <c r="O10">
-        <v>0.9998229208333541</v>
+        <v>0.9885016453859968</v>
       </c>
       <c r="P10">
-        <v>0.9999318931313965</v>
+        <v>0.995577568063004</v>
       </c>
       <c r="Q10">
-        <v>0.9999318931313965</v>
+        <v>0.995577568063004</v>
       </c>
       <c r="R10">
-        <v>0.9999744602667702</v>
+        <v>0.9983415994023588</v>
       </c>
       <c r="S10">
-        <v>0.9999744602667702</v>
+        <v>0.9983415994023588</v>
       </c>
       <c r="T10">
-        <v>0.999990919327895</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>0.9994103495197652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000169459552945</v>
+        <v>1.000577015440336</v>
       </c>
       <c r="D11">
-        <v>0.9993221570010005</v>
+        <v>1.001538707125926</v>
       </c>
       <c r="E11">
-        <v>1.000169459552945</v>
+        <v>0.9987305681677905</v>
       </c>
       <c r="F11">
-        <v>1.000169459552945</v>
+        <v>1.000577015440336</v>
       </c>
       <c r="G11">
-        <v>1.000451894798128</v>
+        <v>1.000577015440336</v>
       </c>
       <c r="H11">
-        <v>0.9996271852805241</v>
+        <v>0.9976919445798013</v>
       </c>
       <c r="I11">
-        <v>1.000169459552945</v>
+        <v>0.9976919445798013</v>
       </c>
       <c r="J11">
-        <v>0.9993221570010005</v>
+        <v>1.000577015440336</v>
       </c>
       <c r="K11">
-        <v>1.000169459552945</v>
+        <v>1.000577015440336</v>
       </c>
       <c r="L11">
-        <v>1.000169459552945</v>
+        <v>1.000577015440336</v>
       </c>
       <c r="M11">
-        <v>0.9997458082769726</v>
+        <v>0.9991344800100685</v>
       </c>
       <c r="N11">
-        <v>0.9997458082769726</v>
+        <v>0.9991344800100685</v>
       </c>
       <c r="O11">
-        <v>0.9997062672781564</v>
+        <v>0.9989998427293093</v>
       </c>
       <c r="P11">
-        <v>0.9998870253689632</v>
+        <v>0.9996153251534911</v>
       </c>
       <c r="Q11">
-        <v>0.9998870253689632</v>
+        <v>0.9996153251534911</v>
       </c>
       <c r="R11">
-        <v>0.9999576339149586</v>
+        <v>0.9998557477252022</v>
       </c>
       <c r="S11">
-        <v>0.9999576339149586</v>
+        <v>0.9998557477252022</v>
       </c>
       <c r="T11">
-        <v>0.9999849359564145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>0.9999487110324211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9984980665675514</v>
+        <v>1.001990686431583</v>
       </c>
       <c r="D12">
-        <v>1.006007732561564</v>
+        <v>1.005308476694737</v>
       </c>
       <c r="E12">
-        <v>0.9984980665675514</v>
+        <v>0.9956205035999998</v>
       </c>
       <c r="F12">
-        <v>0.9984980665675514</v>
+        <v>1.001990686431583</v>
       </c>
       <c r="G12">
-        <v>0.9959948468931308</v>
+        <v>1.001990686431583</v>
       </c>
       <c r="H12">
-        <v>1.003304252380399</v>
+        <v>0.9920372804315766</v>
       </c>
       <c r="I12">
-        <v>0.9984980665675514</v>
+        <v>0.9920372804315766</v>
       </c>
       <c r="J12">
-        <v>1.006007732561564</v>
+        <v>1.001990686431583</v>
       </c>
       <c r="K12">
-        <v>0.9984980665675514</v>
+        <v>1.001990686431583</v>
       </c>
       <c r="L12">
-        <v>0.9984980665675514</v>
+        <v>1.001990686431583</v>
       </c>
       <c r="M12">
-        <v>1.002252899564557</v>
+        <v>0.9970139834315797</v>
       </c>
       <c r="N12">
-        <v>1.002252899564557</v>
+        <v>0.9970139834315797</v>
       </c>
       <c r="O12">
-        <v>1.002603350503171</v>
+        <v>0.9965494901543863</v>
       </c>
       <c r="P12">
-        <v>1.001001288565555</v>
+        <v>0.9986728844315808</v>
       </c>
       <c r="Q12">
-        <v>1.001001288565555</v>
+        <v>0.9986728844315808</v>
       </c>
       <c r="R12">
-        <v>1.000375483066054</v>
+        <v>0.9995023349315812</v>
       </c>
       <c r="S12">
-        <v>1.000375483066054</v>
+        <v>0.9995023349315812</v>
       </c>
       <c r="T12">
-        <v>1.000133505256291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>0.9998230533368435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9996122236349583</v>
+        <v>0.998695330822546</v>
       </c>
       <c r="D13">
-        <v>1.001551118814635</v>
+        <v>0.9965208801138797</v>
       </c>
       <c r="E13">
-        <v>0.9996122236349583</v>
+        <v>1.002870273343795</v>
       </c>
       <c r="F13">
-        <v>0.9996122236349583</v>
+        <v>0.998695330822546</v>
       </c>
       <c r="G13">
-        <v>0.9989659182172428</v>
+        <v>0.998695330822546</v>
       </c>
       <c r="H13">
-        <v>1.000853110027781</v>
+        <v>1.005218681497794</v>
       </c>
       <c r="I13">
-        <v>0.9996122236349583</v>
+        <v>1.005218681497794</v>
       </c>
       <c r="J13">
-        <v>1.001551118814635</v>
+        <v>0.998695330822546</v>
       </c>
       <c r="K13">
-        <v>0.9996122236349583</v>
+        <v>0.998695330822546</v>
       </c>
       <c r="L13">
-        <v>0.9996122236349583</v>
+        <v>0.998695330822546</v>
       </c>
       <c r="M13">
-        <v>1.000581671224797</v>
+        <v>1.00195700616017</v>
       </c>
       <c r="N13">
-        <v>1.000581671224797</v>
+        <v>1.00195700616017</v>
       </c>
       <c r="O13">
-        <v>1.000672150825791</v>
+        <v>1.002261428554712</v>
       </c>
       <c r="P13">
-        <v>1.000258522028184</v>
+        <v>1.000869781047629</v>
       </c>
       <c r="Q13">
-        <v>1.000258522028184</v>
+        <v>1.000869781047629</v>
       </c>
       <c r="R13">
-        <v>1.000096947429878</v>
+        <v>1.000326168491358</v>
       </c>
       <c r="S13">
-        <v>1.000096947429878</v>
+        <v>1.000326168491358</v>
       </c>
       <c r="T13">
-        <v>1.000034469660756</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>1.000115971237185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9984981641398782</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="D14">
-        <v>1.006007306339125</v>
+        <v>1.030562799999999</v>
       </c>
       <c r="E14">
-        <v>0.9984981641398782</v>
+        <v>0.9747856700000013</v>
       </c>
       <c r="F14">
-        <v>0.9984981641398782</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="G14">
-        <v>0.9959951328860016</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="H14">
-        <v>1.003304018664318</v>
+        <v>0.9541557599999997</v>
       </c>
       <c r="I14">
-        <v>0.9984981641398782</v>
+        <v>0.9541557599999997</v>
       </c>
       <c r="J14">
-        <v>1.006007306339125</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="K14">
-        <v>0.9984981641398782</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="L14">
-        <v>0.9984981641398782</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="M14">
-        <v>1.002252735239502</v>
+        <v>0.9828084299999995</v>
       </c>
       <c r="N14">
-        <v>1.002252735239502</v>
+        <v>0.9828084299999995</v>
       </c>
       <c r="O14">
-        <v>1.002603163047774</v>
+        <v>0.9801341766666667</v>
       </c>
       <c r="P14">
-        <v>1.001001211539627</v>
+        <v>0.9923593199999994</v>
       </c>
       <c r="Q14">
-        <v>1.001001211539627</v>
+        <v>0.9923593199999994</v>
       </c>
       <c r="R14">
-        <v>1.00037544968969</v>
+        <v>0.9971347649999993</v>
       </c>
       <c r="S14">
-        <v>1.00037544968969</v>
+        <v>0.9971347649999993</v>
       </c>
       <c r="T14">
-        <v>1.00013349171818</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+        <v>0.9989812549999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9996122454127948</v>
+        <v>1.0042979</v>
       </c>
       <c r="D15">
-        <v>1.001551005564818</v>
+        <v>1.0114611</v>
       </c>
       <c r="E15">
-        <v>0.9996122454127948</v>
+        <v>0.99054463</v>
       </c>
       <c r="F15">
-        <v>0.9996122454127948</v>
+        <v>1.0042979</v>
       </c>
       <c r="G15">
-        <v>0.9989659978780547</v>
+        <v>1.0042979</v>
       </c>
       <c r="H15">
-        <v>1.00085305578587</v>
+        <v>0.98280841</v>
       </c>
       <c r="I15">
-        <v>0.9996122454127948</v>
+        <v>0.98280841</v>
       </c>
       <c r="J15">
-        <v>1.001551005564818</v>
+        <v>1.0042979</v>
       </c>
       <c r="K15">
-        <v>0.9996122454127948</v>
+        <v>1.0042979</v>
       </c>
       <c r="L15">
-        <v>0.9996122454127948</v>
+        <v>1.0042979</v>
       </c>
       <c r="M15">
-        <v>1.000581625488806</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="N15">
-        <v>1.000581625488806</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="O15">
-        <v>1.000672102254494</v>
+        <v>0.9925503133333334</v>
       </c>
       <c r="P15">
-        <v>1.000258498796803</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="Q15">
-        <v>1.000258498796803</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="R15">
-        <v>1.000096935450801</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="S15">
-        <v>1.000096935450801</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="T15">
-        <v>1.000034465911188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+        <v>0.9996179733333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000769575537</v>
+        <v>1.0042976</v>
       </c>
       <c r="D16">
-        <v>0.9999969241962289</v>
+        <v>1.0114603</v>
       </c>
       <c r="E16">
-        <v>1.000000769575537</v>
+        <v>0.9905452300000001</v>
       </c>
       <c r="F16">
-        <v>1.000000769575537</v>
+        <v>1.0042976</v>
       </c>
       <c r="G16">
-        <v>1.000002051973211</v>
+        <v>1.0042976</v>
       </c>
       <c r="H16">
-        <v>0.9999983073680063</v>
+        <v>0.9828095100000001</v>
       </c>
       <c r="I16">
-        <v>1.000000769575537</v>
+        <v>0.9828095100000001</v>
       </c>
       <c r="J16">
-        <v>0.9999969241962289</v>
+        <v>1.0042976</v>
       </c>
       <c r="K16">
-        <v>1.000000769575537</v>
+        <v>1.0042976</v>
       </c>
       <c r="L16">
-        <v>1.000000769575537</v>
+        <v>1.0042976</v>
       </c>
       <c r="M16">
-        <v>0.9999988468858829</v>
+        <v>0.993553555</v>
       </c>
       <c r="N16">
-        <v>0.9999988468858829</v>
+        <v>0.993553555</v>
       </c>
       <c r="O16">
-        <v>0.9999986670465907</v>
+        <v>0.9925507800000001</v>
       </c>
       <c r="P16">
-        <v>0.9999994877824343</v>
+        <v>0.9971349033333333</v>
       </c>
       <c r="Q16">
-        <v>0.9999994877824343</v>
+        <v>0.9971349033333333</v>
       </c>
       <c r="R16">
-        <v>0.99999980823071</v>
+        <v>0.9989255774999999</v>
       </c>
       <c r="S16">
-        <v>0.99999980823071</v>
+        <v>0.9989255774999999</v>
       </c>
       <c r="T16">
-        <v>0.9999999320440095</v>
+        <v>0.9996179733333332</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000016285896783</v>
+        <v>0.9966870399999999</v>
       </c>
       <c r="D17">
-        <v>0.9999348589274861</v>
+        <v>0.9911654300000001</v>
       </c>
       <c r="E17">
-        <v>1.000016285896783</v>
+        <v>1.0072885</v>
       </c>
       <c r="F17">
-        <v>1.000016285896783</v>
+        <v>0.9966870399999999</v>
       </c>
       <c r="G17">
-        <v>1.00004342935799</v>
+        <v>0.9966870399999999</v>
       </c>
       <c r="H17">
-        <v>0.99996417135028</v>
+        <v>1.0132519</v>
       </c>
       <c r="I17">
-        <v>1.000016285896783</v>
+        <v>1.0132519</v>
       </c>
       <c r="J17">
-        <v>0.9999348589274861</v>
+        <v>0.9966870399999999</v>
       </c>
       <c r="K17">
-        <v>1.000016285896783</v>
+        <v>0.9966870399999999</v>
       </c>
       <c r="L17">
-        <v>1.000016285896783</v>
+        <v>0.9966870399999999</v>
       </c>
       <c r="M17">
-        <v>0.9999755724121346</v>
+        <v>1.00496947</v>
       </c>
       <c r="N17">
-        <v>0.9999755724121346</v>
+        <v>1.00496947</v>
       </c>
       <c r="O17">
-        <v>0.9999717720581831</v>
+        <v>1.00574248</v>
       </c>
       <c r="P17">
-        <v>0.9999891435736842</v>
+        <v>1.00220866</v>
       </c>
       <c r="Q17">
-        <v>0.9999891435736842</v>
+        <v>1.00220866</v>
       </c>
       <c r="R17">
-        <v>0.9999959291544589</v>
+        <v>1.000828255</v>
       </c>
       <c r="S17">
-        <v>0.9999959291544589</v>
+        <v>1.000828255</v>
       </c>
       <c r="T17">
-        <v>0.9999985528876842</v>
+        <v>1.000294491666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000057337185809</v>
+        <v>1.004297897260274</v>
       </c>
       <c r="D18">
-        <v>0.9997706566496875</v>
+        <v>1.011461067123287</v>
       </c>
       <c r="E18">
-        <v>1.000057337185809</v>
+        <v>0.9905446256164382</v>
       </c>
       <c r="F18">
-        <v>1.000057337185809</v>
+        <v>1.004297897260274</v>
       </c>
       <c r="G18">
-        <v>1.000152898470507</v>
+        <v>1.004297897260274</v>
       </c>
       <c r="H18">
-        <v>0.9998738614954837</v>
+        <v>0.9828084100000002</v>
       </c>
       <c r="I18">
-        <v>1.000057337185809</v>
+        <v>0.9828084100000002</v>
       </c>
       <c r="J18">
-        <v>0.9997706566496875</v>
+        <v>1.004297897260274</v>
       </c>
       <c r="K18">
-        <v>1.000057337185809</v>
+        <v>1.004297897260274</v>
       </c>
       <c r="L18">
-        <v>1.000057337185809</v>
+        <v>1.004297897260274</v>
       </c>
       <c r="M18">
-        <v>0.9999139969177484</v>
+        <v>0.993553153630137</v>
       </c>
       <c r="N18">
-        <v>0.9999139969177484</v>
+        <v>0.993553153630137</v>
       </c>
       <c r="O18">
-        <v>0.9999006184436602</v>
+        <v>0.992550310958904</v>
       </c>
       <c r="P18">
-        <v>0.9999617770071021</v>
+        <v>0.9971347348401826</v>
       </c>
       <c r="Q18">
-        <v>0.9999617770071021</v>
+        <v>0.9971347348401826</v>
       </c>
       <c r="R18">
-        <v>0.9999856670517789</v>
+        <v>0.9989255254452054</v>
       </c>
       <c r="S18">
-        <v>0.9999856670517789</v>
+        <v>0.9989255254452054</v>
       </c>
       <c r="T18">
-        <v>0.999994904695518</v>
+        <v>0.9996179657534245</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000134324090214</v>
+        <v>1.001941594736842</v>
       </c>
       <c r="D19">
-        <v>0.9994627191902316</v>
+        <v>1.005177570526316</v>
       </c>
       <c r="E19">
-        <v>1.000134324090214</v>
+        <v>0.9957285084210525</v>
       </c>
       <c r="F19">
-        <v>1.000134324090214</v>
+        <v>1.001941594736842</v>
       </c>
       <c r="G19">
-        <v>1.000358185263787</v>
+        <v>1.001941594736842</v>
       </c>
       <c r="H19">
-        <v>0.9997044973967686</v>
+        <v>0.992233654736842</v>
       </c>
       <c r="I19">
-        <v>1.000134324090214</v>
+        <v>0.992233654736842</v>
       </c>
       <c r="J19">
-        <v>0.9994627191902316</v>
+        <v>1.001941594736842</v>
       </c>
       <c r="K19">
-        <v>1.000134324090214</v>
+        <v>1.001941594736842</v>
       </c>
       <c r="L19">
-        <v>1.000134324090214</v>
+        <v>1.001941594736842</v>
       </c>
       <c r="M19">
-        <v>0.9997985216402228</v>
+        <v>0.9970876247368421</v>
       </c>
       <c r="N19">
-        <v>0.9997985216402228</v>
+        <v>0.9970876247368421</v>
       </c>
       <c r="O19">
-        <v>0.9997671802257381</v>
+        <v>0.9966345859649123</v>
       </c>
       <c r="P19">
-        <v>0.99991045579022</v>
+        <v>0.9987056147368421</v>
       </c>
       <c r="Q19">
-        <v>0.99991045579022</v>
+        <v>0.9987056147368421</v>
       </c>
       <c r="R19">
-        <v>0.9999664228652185</v>
+        <v>0.9995146097368421</v>
       </c>
       <c r="S19">
-        <v>0.9999664228652185</v>
+        <v>0.9995146097368421</v>
       </c>
       <c r="T19">
-        <v>0.9999880623535716</v>
+        <v>0.9998274196491228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.001941502105263</v>
+      </c>
+      <c r="D20">
+        <v>1.005177319473684</v>
+      </c>
+      <c r="E20">
+        <v>0.9957287047368423</v>
+      </c>
+      <c r="F20">
+        <v>1.001941502105263</v>
+      </c>
+      <c r="G20">
+        <v>1.001941502105263</v>
+      </c>
+      <c r="H20">
+        <v>0.9922340194736842</v>
+      </c>
+      <c r="I20">
+        <v>0.9922340194736842</v>
+      </c>
+      <c r="J20">
+        <v>1.001941502105263</v>
+      </c>
+      <c r="K20">
+        <v>1.001941502105263</v>
+      </c>
+      <c r="L20">
+        <v>1.001941502105263</v>
+      </c>
+      <c r="M20">
+        <v>0.9970877607894735</v>
+      </c>
+      <c r="N20">
+        <v>0.9970877607894735</v>
+      </c>
+      <c r="O20">
+        <v>0.9966347421052631</v>
+      </c>
+      <c r="P20">
+        <v>0.9987056745614034</v>
+      </c>
+      <c r="Q20">
+        <v>0.9987056745614034</v>
+      </c>
+      <c r="R20">
+        <v>0.9995146314473682</v>
+      </c>
+      <c r="S20">
+        <v>0.9995146314473682</v>
+      </c>
+      <c r="T20">
+        <v>0.9998274249999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9984981641398782</v>
+      </c>
+      <c r="D21">
+        <v>0.9959951328860016</v>
+      </c>
+      <c r="E21">
+        <v>1.003304018664318</v>
+      </c>
+      <c r="F21">
+        <v>0.9984981641398782</v>
+      </c>
+      <c r="G21">
+        <v>0.9984981641398782</v>
+      </c>
+      <c r="H21">
+        <v>1.006007306339125</v>
+      </c>
+      <c r="I21">
+        <v>1.006007306339125</v>
+      </c>
+      <c r="J21">
+        <v>0.9984981641398782</v>
+      </c>
+      <c r="K21">
+        <v>0.9984981641398782</v>
+      </c>
+      <c r="L21">
+        <v>0.9984981641398782</v>
+      </c>
+      <c r="M21">
+        <v>1.002252735239502</v>
+      </c>
+      <c r="N21">
+        <v>1.002252735239502</v>
+      </c>
+      <c r="O21">
+        <v>1.002603163047774</v>
+      </c>
+      <c r="P21">
+        <v>1.001001211539627</v>
+      </c>
+      <c r="Q21">
+        <v>1.001001211539627</v>
+      </c>
+      <c r="R21">
+        <v>1.00037544968969</v>
+      </c>
+      <c r="S21">
+        <v>1.00037544968969</v>
+      </c>
+      <c r="T21">
+        <v>1.00013349171818</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9996122454127948</v>
+      </c>
+      <c r="D22">
+        <v>0.9989659978780547</v>
+      </c>
+      <c r="E22">
+        <v>1.00085305578587</v>
+      </c>
+      <c r="F22">
+        <v>0.9996122454127948</v>
+      </c>
+      <c r="G22">
+        <v>0.9996122454127948</v>
+      </c>
+      <c r="H22">
+        <v>1.001551005564818</v>
+      </c>
+      <c r="I22">
+        <v>1.001551005564818</v>
+      </c>
+      <c r="J22">
+        <v>0.9996122454127948</v>
+      </c>
+      <c r="K22">
+        <v>0.9996122454127948</v>
+      </c>
+      <c r="L22">
+        <v>0.9996122454127948</v>
+      </c>
+      <c r="M22">
+        <v>1.000581625488806</v>
+      </c>
+      <c r="N22">
+        <v>1.000581625488806</v>
+      </c>
+      <c r="O22">
+        <v>1.000672102254494</v>
+      </c>
+      <c r="P22">
+        <v>1.000258498796803</v>
+      </c>
+      <c r="Q22">
+        <v>1.000258498796803</v>
+      </c>
+      <c r="R22">
+        <v>1.000096935450801</v>
+      </c>
+      <c r="S22">
+        <v>1.000096935450801</v>
+      </c>
+      <c r="T22">
+        <v>1.000034465911188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9984980665675514</v>
+      </c>
+      <c r="D23">
+        <v>0.995994846893131</v>
+      </c>
+      <c r="E23">
+        <v>1.003304252380399</v>
+      </c>
+      <c r="F23">
+        <v>0.9984980665675514</v>
+      </c>
+      <c r="G23">
+        <v>0.9984980665675514</v>
+      </c>
+      <c r="H23">
+        <v>1.006007732561564</v>
+      </c>
+      <c r="I23">
+        <v>1.006007732561564</v>
+      </c>
+      <c r="J23">
+        <v>0.9984980665675514</v>
+      </c>
+      <c r="K23">
+        <v>0.9984980665675514</v>
+      </c>
+      <c r="L23">
+        <v>0.9984980665675514</v>
+      </c>
+      <c r="M23">
+        <v>1.002252899564557</v>
+      </c>
+      <c r="N23">
+        <v>1.002252899564557</v>
+      </c>
+      <c r="O23">
+        <v>1.002603350503171</v>
+      </c>
+      <c r="P23">
+        <v>1.001001288565555</v>
+      </c>
+      <c r="Q23">
+        <v>1.001001288565555</v>
+      </c>
+      <c r="R23">
+        <v>1.000375483066054</v>
+      </c>
+      <c r="S23">
+        <v>1.000375483066054</v>
+      </c>
+      <c r="T23">
+        <v>1.000133505256291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9996122236349583</v>
+      </c>
+      <c r="D24">
+        <v>0.9989659182172428</v>
+      </c>
+      <c r="E24">
+        <v>1.000853110027781</v>
+      </c>
+      <c r="F24">
+        <v>0.9996122236349583</v>
+      </c>
+      <c r="G24">
+        <v>0.9996122236349583</v>
+      </c>
+      <c r="H24">
+        <v>1.001551118814635</v>
+      </c>
+      <c r="I24">
+        <v>1.001551118814635</v>
+      </c>
+      <c r="J24">
+        <v>0.9996122236349583</v>
+      </c>
+      <c r="K24">
+        <v>0.9996122236349583</v>
+      </c>
+      <c r="L24">
+        <v>0.9996122236349583</v>
+      </c>
+      <c r="M24">
+        <v>1.000581671224797</v>
+      </c>
+      <c r="N24">
+        <v>1.000581671224797</v>
+      </c>
+      <c r="O24">
+        <v>1.000672150825791</v>
+      </c>
+      <c r="P24">
+        <v>1.000258522028184</v>
+      </c>
+      <c r="Q24">
+        <v>1.000258522028184</v>
+      </c>
+      <c r="R24">
+        <v>1.000096947429878</v>
+      </c>
+      <c r="S24">
+        <v>1.000096947429878</v>
+      </c>
+      <c r="T24">
+        <v>1.000034469660756</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9984979121965397</v>
+      </c>
+      <c r="D25">
+        <v>0.9959944294882275</v>
+      </c>
+      <c r="E25">
+        <v>1.003304584185431</v>
+      </c>
+      <c r="F25">
+        <v>0.9984979121965397</v>
+      </c>
+      <c r="G25">
+        <v>0.9984979121965397</v>
+      </c>
+      <c r="H25">
+        <v>1.006008349699427</v>
+      </c>
+      <c r="I25">
+        <v>1.006008349699427</v>
+      </c>
+      <c r="J25">
+        <v>0.9984979121965397</v>
+      </c>
+      <c r="K25">
+        <v>0.9984979121965397</v>
+      </c>
+      <c r="L25">
+        <v>0.9984979121965397</v>
+      </c>
+      <c r="M25">
+        <v>1.002253130947983</v>
+      </c>
+      <c r="N25">
+        <v>1.002253130947983</v>
+      </c>
+      <c r="O25">
+        <v>1.002603615360466</v>
+      </c>
+      <c r="P25">
+        <v>1.001001391364169</v>
+      </c>
+      <c r="Q25">
+        <v>1.001001391364169</v>
+      </c>
+      <c r="R25">
+        <v>1.000375521572262</v>
+      </c>
+      <c r="S25">
+        <v>1.000375521572262</v>
+      </c>
+      <c r="T25">
+        <v>1.000133516660451</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9996121799737203</v>
+      </c>
+      <c r="D26">
+        <v>0.9989658086527516</v>
+      </c>
+      <c r="E26">
+        <v>1.000853207938217</v>
+      </c>
+      <c r="F26">
+        <v>0.9996121799737203</v>
+      </c>
+      <c r="G26">
+        <v>0.9996121799737203</v>
+      </c>
+      <c r="H26">
+        <v>1.001551287585155</v>
+      </c>
+      <c r="I26">
+        <v>1.001551287585155</v>
+      </c>
+      <c r="J26">
+        <v>0.9996121799737203</v>
+      </c>
+      <c r="K26">
+        <v>0.9996121799737203</v>
+      </c>
+      <c r="L26">
+        <v>0.9996121799737203</v>
+      </c>
+      <c r="M26">
+        <v>1.000581733779438</v>
+      </c>
+      <c r="N26">
+        <v>1.000581733779438</v>
+      </c>
+      <c r="O26">
+        <v>1.000672225165697</v>
+      </c>
+      <c r="P26">
+        <v>1.000258549177532</v>
+      </c>
+      <c r="Q26">
+        <v>1.000258549177532</v>
+      </c>
+      <c r="R26">
+        <v>1.000096956876579</v>
+      </c>
+      <c r="S26">
+        <v>1.000096956876579</v>
+      </c>
+      <c r="T26">
+        <v>1.000034474016214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000683084663636</v>
+      </c>
+      <c r="D27">
+        <v>1.001821539769471</v>
+      </c>
+      <c r="E27">
+        <v>0.9984972263116271</v>
+      </c>
+      <c r="F27">
+        <v>1.000683084663636</v>
+      </c>
+      <c r="G27">
+        <v>1.000683084663636</v>
+      </c>
+      <c r="H27">
+        <v>0.9972676847071752</v>
+      </c>
+      <c r="I27">
+        <v>0.9972676847071752</v>
+      </c>
+      <c r="J27">
+        <v>1.000683084663636</v>
+      </c>
+      <c r="K27">
+        <v>1.000683084663636</v>
+      </c>
+      <c r="L27">
+        <v>1.000683084663636</v>
+      </c>
+      <c r="M27">
+        <v>0.9989753846854055</v>
+      </c>
+      <c r="N27">
+        <v>0.9989753846854055</v>
+      </c>
+      <c r="O27">
+        <v>0.9988159985608127</v>
+      </c>
+      <c r="P27">
+        <v>0.9995446180114822</v>
+      </c>
+      <c r="Q27">
+        <v>0.9995446180114822</v>
+      </c>
+      <c r="R27">
+        <v>0.9998292346745206</v>
+      </c>
+      <c r="S27">
+        <v>0.9998292346745206</v>
+      </c>
+      <c r="T27">
+        <v>0.9999392841298634</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9998815122898956</v>
+      </c>
+      <c r="D28">
+        <v>0.9996840048444549</v>
+      </c>
+      <c r="E28">
+        <v>1.000260699731463</v>
+      </c>
+      <c r="F28">
+        <v>0.9998815122898956</v>
+      </c>
+      <c r="G28">
+        <v>0.9998815122898956</v>
+      </c>
+      <c r="H28">
+        <v>1.000473996338852</v>
+      </c>
+      <c r="I28">
+        <v>1.000473996338852</v>
+      </c>
+      <c r="J28">
+        <v>0.9998815122898956</v>
+      </c>
+      <c r="K28">
+        <v>0.9998815122898956</v>
+      </c>
+      <c r="L28">
+        <v>0.9998815122898956</v>
+      </c>
+      <c r="M28">
+        <v>1.000177754314374</v>
+      </c>
+      <c r="N28">
+        <v>1.000177754314374</v>
+      </c>
+      <c r="O28">
+        <v>1.000205402786737</v>
+      </c>
+      <c r="P28">
+        <v>1.000079006972881</v>
+      </c>
+      <c r="Q28">
+        <v>1.000079006972881</v>
+      </c>
+      <c r="R28">
+        <v>1.000029633302135</v>
+      </c>
+      <c r="S28">
+        <v>1.000029633302135</v>
+      </c>
+      <c r="T28">
+        <v>1.000010539630743</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9977960775245921</v>
+      </c>
+      <c r="D29">
+        <v>0.9941228420082292</v>
+      </c>
+      <c r="E29">
+        <v>1.00484865147597</v>
+      </c>
+      <c r="F29">
+        <v>0.9977960775245921</v>
+      </c>
+      <c r="G29">
+        <v>0.9977960775245921</v>
+      </c>
+      <c r="H29">
+        <v>1.008815735464564</v>
+      </c>
+      <c r="I29">
+        <v>1.008815735464564</v>
+      </c>
+      <c r="J29">
+        <v>0.9977960775245921</v>
+      </c>
+      <c r="K29">
+        <v>0.9977960775245921</v>
+      </c>
+      <c r="L29">
+        <v>0.9977960775245921</v>
+      </c>
+      <c r="M29">
+        <v>1.003305906494578</v>
+      </c>
+      <c r="N29">
+        <v>1.003305906494578</v>
+      </c>
+      <c r="O29">
+        <v>1.003820154821709</v>
+      </c>
+      <c r="P29">
+        <v>1.001469296837916</v>
+      </c>
+      <c r="Q29">
+        <v>1.001469296837916</v>
+      </c>
+      <c r="R29">
+        <v>1.000550992009585</v>
+      </c>
+      <c r="S29">
+        <v>1.000550992009585</v>
+      </c>
+      <c r="T29">
+        <v>1.000195910253757</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma1F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma1F-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000612088006515</v>
+        <v>1.00163426422744</v>
       </c>
       <c r="D4">
-        <v>1.001632231608403</v>
+        <v>1.004358027154505</v>
       </c>
       <c r="E4">
-        <v>0.9986534106770185</v>
+        <v>0.9964046266582384</v>
       </c>
       <c r="F4">
-        <v>1.000612088006515</v>
+        <v>1.00163426422744</v>
       </c>
       <c r="G4">
-        <v>1.000612088006515</v>
+        <v>1.00163426422744</v>
       </c>
       <c r="H4">
-        <v>0.9975516571293739</v>
+        <v>0.9934629589275957</v>
       </c>
       <c r="I4">
-        <v>0.9975516571293739</v>
+        <v>0.9934629589275957</v>
       </c>
       <c r="J4">
-        <v>1.000612088006515</v>
+        <v>1.00163426422744</v>
       </c>
       <c r="K4">
-        <v>1.000612088006515</v>
+        <v>1.00163426422744</v>
       </c>
       <c r="L4">
-        <v>1.000612088006515</v>
+        <v>1.00163426422744</v>
       </c>
       <c r="M4">
-        <v>0.9990818725679442</v>
+        <v>0.9975486115775178</v>
       </c>
       <c r="N4">
-        <v>0.9990818725679442</v>
+        <v>0.9975486115775178</v>
       </c>
       <c r="O4">
-        <v>0.9989390519376357</v>
+        <v>0.9971672832710913</v>
       </c>
       <c r="P4">
-        <v>0.9995919443808011</v>
+        <v>0.9989104957941585</v>
       </c>
       <c r="Q4">
-        <v>0.9995919443808011</v>
+        <v>0.9989104957941585</v>
       </c>
       <c r="R4">
-        <v>0.9998469802872294</v>
+        <v>0.9995914379024788</v>
       </c>
       <c r="S4">
-        <v>0.9998469802872294</v>
+        <v>0.9995914379024788</v>
       </c>
       <c r="T4">
-        <v>0.9999455939057232</v>
+        <v>0.9998547342371098</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.00194845585015</v>
+        <v>1.001126469056711</v>
       </c>
       <c r="D5">
-        <v>1.00519586911383</v>
+        <v>1.003003900059562</v>
       </c>
       <c r="E5">
-        <v>0.9957134066570609</v>
+        <v>0.997521775932388</v>
       </c>
       <c r="F5">
-        <v>1.00194845585015</v>
+        <v>1.001126469056711</v>
       </c>
       <c r="G5">
-        <v>1.00194845585015</v>
+        <v>1.001126469056711</v>
       </c>
       <c r="H5">
-        <v>0.9922061952665672</v>
+        <v>0.9954941504626742</v>
       </c>
       <c r="I5">
-        <v>0.9922061952665672</v>
+        <v>0.9954941504626742</v>
       </c>
       <c r="J5">
-        <v>1.00194845585015</v>
+        <v>1.001126469056711</v>
       </c>
       <c r="K5">
-        <v>1.00194845585015</v>
+        <v>1.001126469056711</v>
       </c>
       <c r="L5">
-        <v>1.00194845585015</v>
+        <v>1.001126469056711</v>
       </c>
       <c r="M5">
-        <v>0.9970773255583587</v>
+        <v>0.9983103097596926</v>
       </c>
       <c r="N5">
-        <v>0.9970773255583587</v>
+        <v>0.9983103097596926</v>
       </c>
       <c r="O5">
-        <v>0.9966226859245927</v>
+        <v>0.9980474651505911</v>
       </c>
       <c r="P5">
-        <v>0.9987010356556225</v>
+        <v>0.9992490295253654</v>
       </c>
       <c r="Q5">
-        <v>0.9987010356556225</v>
+        <v>0.9992490295253654</v>
       </c>
       <c r="R5">
-        <v>0.9995128907042544</v>
+        <v>0.9997183894082018</v>
       </c>
       <c r="S5">
-        <v>0.9995128907042544</v>
+        <v>0.9997183894082018</v>
       </c>
       <c r="T5">
-        <v>0.9998268064313182</v>
+        <v>0.9998998722707929</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.006536407967167</v>
+        <v>1.000612088006515</v>
       </c>
       <c r="D6">
-        <v>1.017430349502477</v>
+        <v>1.001632231608403</v>
       </c>
       <c r="E6">
-        <v>0.9856199511768708</v>
+        <v>0.9986534106770185</v>
       </c>
       <c r="F6">
-        <v>1.006536407967167</v>
+        <v>1.000612088006515</v>
       </c>
       <c r="G6">
-        <v>1.006536407967167</v>
+        <v>1.000612088006515</v>
       </c>
       <c r="H6">
-        <v>0.9738544553948659</v>
+        <v>0.9975516571293739</v>
       </c>
       <c r="I6">
-        <v>0.9738544553948659</v>
+        <v>0.9975516571293739</v>
       </c>
       <c r="J6">
-        <v>1.006536407967167</v>
+        <v>1.000612088006515</v>
       </c>
       <c r="K6">
-        <v>1.006536407967167</v>
+        <v>1.000612088006515</v>
       </c>
       <c r="L6">
-        <v>1.006536407967167</v>
+        <v>1.000612088006515</v>
       </c>
       <c r="M6">
-        <v>0.9901954316810166</v>
+        <v>0.9990818725679442</v>
       </c>
       <c r="N6">
-        <v>0.9901954316810166</v>
+        <v>0.9990818725679442</v>
       </c>
       <c r="O6">
-        <v>0.988670271512968</v>
+        <v>0.9989390519376357</v>
       </c>
       <c r="P6">
-        <v>0.9956424237764002</v>
+        <v>0.9995919443808011</v>
       </c>
       <c r="Q6">
-        <v>0.9956424237764002</v>
+        <v>0.9995919443808011</v>
       </c>
       <c r="R6">
-        <v>0.998365919824092</v>
+        <v>0.9998469802872294</v>
       </c>
       <c r="S6">
-        <v>0.998365919824092</v>
+        <v>0.9998469802872294</v>
       </c>
       <c r="T6">
-        <v>0.9994189966626194</v>
+        <v>0.9999455939057232</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.00020332152893</v>
+        <v>1.00194845585015</v>
       </c>
       <c r="D7">
-        <v>1.000542191497408</v>
+        <v>1.00519586911383</v>
       </c>
       <c r="E7">
-        <v>0.9995526921759467</v>
+        <v>0.9957134066570609</v>
       </c>
       <c r="F7">
-        <v>1.00020332152893</v>
+        <v>1.00194845585015</v>
       </c>
       <c r="G7">
-        <v>1.00020332152893</v>
+        <v>1.00194845585015</v>
       </c>
       <c r="H7">
-        <v>0.9991867150210981</v>
+        <v>0.9922061952665672</v>
       </c>
       <c r="I7">
-        <v>0.9991867150210981</v>
+        <v>0.9922061952665672</v>
       </c>
       <c r="J7">
-        <v>1.00020332152893</v>
+        <v>1.00194845585015</v>
       </c>
       <c r="K7">
-        <v>1.00020332152893</v>
+        <v>1.00194845585015</v>
       </c>
       <c r="L7">
-        <v>1.00020332152893</v>
+        <v>1.00194845585015</v>
       </c>
       <c r="M7">
-        <v>0.9996950182750139</v>
+        <v>0.9970773255583587</v>
       </c>
       <c r="N7">
-        <v>0.9996950182750139</v>
+        <v>0.9970773255583587</v>
       </c>
       <c r="O7">
-        <v>0.9996475762419915</v>
+        <v>0.9966226859245927</v>
       </c>
       <c r="P7">
-        <v>0.9998644526929859</v>
+        <v>0.9987010356556225</v>
       </c>
       <c r="Q7">
-        <v>0.9998644526929859</v>
+        <v>0.9987010356556225</v>
       </c>
       <c r="R7">
-        <v>0.9999491699019718</v>
+        <v>0.9995128907042544</v>
       </c>
       <c r="S7">
-        <v>0.9999491699019718</v>
+        <v>0.9995128907042544</v>
       </c>
       <c r="T7">
-        <v>0.9999819272135402</v>
+        <v>0.9998268064313182</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000016285896783</v>
+        <v>1.006536407967167</v>
       </c>
       <c r="D8">
-        <v>1.00004342935799</v>
+        <v>1.017430349502477</v>
       </c>
       <c r="E8">
-        <v>0.99996417135028</v>
+        <v>0.9856199511768708</v>
       </c>
       <c r="F8">
-        <v>1.000016285896783</v>
+        <v>1.006536407967167</v>
       </c>
       <c r="G8">
-        <v>1.000016285896783</v>
+        <v>1.006536407967167</v>
       </c>
       <c r="H8">
-        <v>0.999934858927486</v>
+        <v>0.9738544553948659</v>
       </c>
       <c r="I8">
-        <v>0.999934858927486</v>
+        <v>0.9738544553948659</v>
       </c>
       <c r="J8">
-        <v>1.000016285896783</v>
+        <v>1.006536407967167</v>
       </c>
       <c r="K8">
-        <v>1.000016285896783</v>
+        <v>1.006536407967167</v>
       </c>
       <c r="L8">
-        <v>1.000016285896783</v>
+        <v>1.006536407967167</v>
       </c>
       <c r="M8">
-        <v>0.9999755724121346</v>
+        <v>0.9901954316810166</v>
       </c>
       <c r="N8">
-        <v>0.9999755724121346</v>
+        <v>0.9901954316810166</v>
       </c>
       <c r="O8">
-        <v>0.9999717720581831</v>
+        <v>0.988670271512968</v>
       </c>
       <c r="P8">
-        <v>0.9999891435736842</v>
+        <v>0.9956424237764002</v>
       </c>
       <c r="Q8">
-        <v>0.9999891435736842</v>
+        <v>0.9956424237764002</v>
       </c>
       <c r="R8">
-        <v>0.9999959291544589</v>
+        <v>0.998365919824092</v>
       </c>
       <c r="S8">
-        <v>0.9999959291544589</v>
+        <v>0.998365919824092</v>
       </c>
       <c r="T8">
-        <v>0.9999985528876842</v>
+        <v>0.9994189966626194</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000359495711253</v>
+        <v>1.00020332152893</v>
       </c>
       <c r="D9">
-        <v>1.000958658147354</v>
+        <v>1.000542191497408</v>
       </c>
       <c r="E9">
-        <v>0.9992091084844512</v>
+        <v>0.9995526921759467</v>
       </c>
       <c r="F9">
-        <v>1.000359495711253</v>
+        <v>1.00020332152893</v>
       </c>
       <c r="G9">
-        <v>1.000359495711253</v>
+        <v>1.00020332152893</v>
       </c>
       <c r="H9">
-        <v>0.9985620162466361</v>
+        <v>0.9991867150210981</v>
       </c>
       <c r="I9">
-        <v>0.9985620162466361</v>
+        <v>0.9991867150210981</v>
       </c>
       <c r="J9">
-        <v>1.000359495711253</v>
+        <v>1.00020332152893</v>
       </c>
       <c r="K9">
-        <v>1.000359495711253</v>
+        <v>1.00020332152893</v>
       </c>
       <c r="L9">
-        <v>1.000359495711253</v>
+        <v>1.00020332152893</v>
       </c>
       <c r="M9">
-        <v>0.9994607559789446</v>
+        <v>0.9996950182750139</v>
       </c>
       <c r="N9">
-        <v>0.9994607559789446</v>
+        <v>0.9996950182750139</v>
       </c>
       <c r="O9">
-        <v>0.9993768734807801</v>
+        <v>0.9996475762419915</v>
       </c>
       <c r="P9">
-        <v>0.9997603358897141</v>
+        <v>0.9998644526929859</v>
       </c>
       <c r="Q9">
-        <v>0.9997603358897141</v>
+        <v>0.9998644526929859</v>
       </c>
       <c r="R9">
-        <v>0.9999101258450989</v>
+        <v>0.9999491699019718</v>
       </c>
       <c r="S9">
-        <v>0.9999101258450989</v>
+        <v>0.9999491699019718</v>
       </c>
       <c r="T9">
-        <v>0.9999680450020335</v>
+        <v>0.9999819272135402</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.006633693420423</v>
+        <v>1.000016285896783</v>
       </c>
       <c r="D10">
-        <v>1.017689774119754</v>
+        <v>1.00004342935799</v>
       </c>
       <c r="E10">
-        <v>0.9854059253894013</v>
+        <v>0.99996417135028</v>
       </c>
       <c r="F10">
-        <v>1.006633693420423</v>
+        <v>1.000016285896783</v>
       </c>
       <c r="G10">
-        <v>1.006633693420423</v>
+        <v>1.000016285896783</v>
       </c>
       <c r="H10">
-        <v>0.9734653173481661</v>
+        <v>0.999934858927486</v>
       </c>
       <c r="I10">
-        <v>0.9734653173481661</v>
+        <v>0.999934858927486</v>
       </c>
       <c r="J10">
-        <v>1.006633693420423</v>
+        <v>1.000016285896783</v>
       </c>
       <c r="K10">
-        <v>1.006633693420423</v>
+        <v>1.000016285896783</v>
       </c>
       <c r="L10">
-        <v>1.006633693420423</v>
+        <v>1.000016285896783</v>
       </c>
       <c r="M10">
-        <v>0.9900495053842946</v>
+        <v>0.9999755724121346</v>
       </c>
       <c r="N10">
-        <v>0.9900495053842946</v>
+        <v>0.9999755724121346</v>
       </c>
       <c r="O10">
-        <v>0.9885016453859968</v>
+        <v>0.9999717720581831</v>
       </c>
       <c r="P10">
-        <v>0.995577568063004</v>
+        <v>0.9999891435736842</v>
       </c>
       <c r="Q10">
-        <v>0.995577568063004</v>
+        <v>0.9999891435736842</v>
       </c>
       <c r="R10">
-        <v>0.9983415994023588</v>
+        <v>0.9999959291544589</v>
       </c>
       <c r="S10">
-        <v>0.9983415994023588</v>
+        <v>0.9999959291544589</v>
       </c>
       <c r="T10">
-        <v>0.9994103495197652</v>
+        <v>0.9999985528876842</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000577015440336</v>
+        <v>1.000359495711253</v>
       </c>
       <c r="D11">
-        <v>1.001538707125926</v>
+        <v>1.000958658147354</v>
       </c>
       <c r="E11">
-        <v>0.9987305681677905</v>
+        <v>0.9992091084844512</v>
       </c>
       <c r="F11">
-        <v>1.000577015440336</v>
+        <v>1.000359495711253</v>
       </c>
       <c r="G11">
-        <v>1.000577015440336</v>
+        <v>1.000359495711253</v>
       </c>
       <c r="H11">
-        <v>0.9976919445798013</v>
+        <v>0.9985620162466361</v>
       </c>
       <c r="I11">
-        <v>0.9976919445798013</v>
+        <v>0.9985620162466361</v>
       </c>
       <c r="J11">
-        <v>1.000577015440336</v>
+        <v>1.000359495711253</v>
       </c>
       <c r="K11">
-        <v>1.000577015440336</v>
+        <v>1.000359495711253</v>
       </c>
       <c r="L11">
-        <v>1.000577015440336</v>
+        <v>1.000359495711253</v>
       </c>
       <c r="M11">
-        <v>0.9991344800100685</v>
+        <v>0.9994607559789446</v>
       </c>
       <c r="N11">
-        <v>0.9991344800100685</v>
+        <v>0.9994607559789446</v>
       </c>
       <c r="O11">
-        <v>0.9989998427293093</v>
+        <v>0.9993768734807801</v>
       </c>
       <c r="P11">
-        <v>0.9996153251534911</v>
+        <v>0.9997603358897141</v>
       </c>
       <c r="Q11">
-        <v>0.9996153251534911</v>
+        <v>0.9997603358897141</v>
       </c>
       <c r="R11">
-        <v>0.9998557477252022</v>
+        <v>0.9999101258450989</v>
       </c>
       <c r="S11">
-        <v>0.9998557477252022</v>
+        <v>0.9999101258450989</v>
       </c>
       <c r="T11">
-        <v>0.9999487110324211</v>
+        <v>0.9999680450020335</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.001990686431583</v>
+        <v>1.006633693420423</v>
       </c>
       <c r="D12">
-        <v>1.005308476694737</v>
+        <v>1.017689774119754</v>
       </c>
       <c r="E12">
-        <v>0.9956205035999998</v>
+        <v>0.9854059253894013</v>
       </c>
       <c r="F12">
-        <v>1.001990686431583</v>
+        <v>1.006633693420423</v>
       </c>
       <c r="G12">
-        <v>1.001990686431583</v>
+        <v>1.006633693420423</v>
       </c>
       <c r="H12">
-        <v>0.9920372804315766</v>
+        <v>0.9734653173481661</v>
       </c>
       <c r="I12">
-        <v>0.9920372804315766</v>
+        <v>0.9734653173481661</v>
       </c>
       <c r="J12">
-        <v>1.001990686431583</v>
+        <v>1.006633693420423</v>
       </c>
       <c r="K12">
-        <v>1.001990686431583</v>
+        <v>1.006633693420423</v>
       </c>
       <c r="L12">
-        <v>1.001990686431583</v>
+        <v>1.006633693420423</v>
       </c>
       <c r="M12">
-        <v>0.9970139834315797</v>
+        <v>0.9900495053842946</v>
       </c>
       <c r="N12">
-        <v>0.9970139834315797</v>
+        <v>0.9900495053842946</v>
       </c>
       <c r="O12">
-        <v>0.9965494901543863</v>
+        <v>0.9885016453859968</v>
       </c>
       <c r="P12">
-        <v>0.9986728844315808</v>
+        <v>0.995577568063004</v>
       </c>
       <c r="Q12">
-        <v>0.9986728844315808</v>
+        <v>0.995577568063004</v>
       </c>
       <c r="R12">
-        <v>0.9995023349315812</v>
+        <v>0.9983415994023588</v>
       </c>
       <c r="S12">
-        <v>0.9995023349315812</v>
+        <v>0.9983415994023588</v>
       </c>
       <c r="T12">
-        <v>0.9998230533368435</v>
+        <v>0.9994103495197652</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.998695330822546</v>
+        <v>1.000577015440336</v>
       </c>
       <c r="D13">
-        <v>0.9965208801138797</v>
+        <v>1.001538707125926</v>
       </c>
       <c r="E13">
-        <v>1.002870273343795</v>
+        <v>0.9987305681677905</v>
       </c>
       <c r="F13">
-        <v>0.998695330822546</v>
+        <v>1.000577015440336</v>
       </c>
       <c r="G13">
-        <v>0.998695330822546</v>
+        <v>1.000577015440336</v>
       </c>
       <c r="H13">
-        <v>1.005218681497794</v>
+        <v>0.9976919445798013</v>
       </c>
       <c r="I13">
-        <v>1.005218681497794</v>
+        <v>0.9976919445798013</v>
       </c>
       <c r="J13">
-        <v>0.998695330822546</v>
+        <v>1.000577015440336</v>
       </c>
       <c r="K13">
-        <v>0.998695330822546</v>
+        <v>1.000577015440336</v>
       </c>
       <c r="L13">
-        <v>0.998695330822546</v>
+        <v>1.000577015440336</v>
       </c>
       <c r="M13">
-        <v>1.00195700616017</v>
+        <v>0.9991344800100685</v>
       </c>
       <c r="N13">
-        <v>1.00195700616017</v>
+        <v>0.9991344800100685</v>
       </c>
       <c r="O13">
-        <v>1.002261428554712</v>
+        <v>0.9989998427293093</v>
       </c>
       <c r="P13">
-        <v>1.000869781047629</v>
+        <v>0.9996153251534911</v>
       </c>
       <c r="Q13">
-        <v>1.000869781047629</v>
+        <v>0.9996153251534911</v>
       </c>
       <c r="R13">
-        <v>1.000326168491358</v>
+        <v>0.9998557477252022</v>
       </c>
       <c r="S13">
-        <v>1.000326168491358</v>
+        <v>0.9998557477252022</v>
       </c>
       <c r="T13">
-        <v>1.000115971237185</v>
+        <v>0.9999487110324211</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.011461099999999</v>
+        <v>1.001990686431583</v>
       </c>
       <c r="D14">
-        <v>1.030562799999999</v>
+        <v>1.005308476694737</v>
       </c>
       <c r="E14">
-        <v>0.9747856700000013</v>
+        <v>0.9956205035999998</v>
       </c>
       <c r="F14">
-        <v>1.011461099999999</v>
+        <v>1.001990686431583</v>
       </c>
       <c r="G14">
-        <v>1.011461099999999</v>
+        <v>1.001990686431583</v>
       </c>
       <c r="H14">
-        <v>0.9541557599999997</v>
+        <v>0.9920372804315766</v>
       </c>
       <c r="I14">
-        <v>0.9541557599999997</v>
+        <v>0.9920372804315766</v>
       </c>
       <c r="J14">
-        <v>1.011461099999999</v>
+        <v>1.001990686431583</v>
       </c>
       <c r="K14">
-        <v>1.011461099999999</v>
+        <v>1.001990686431583</v>
       </c>
       <c r="L14">
-        <v>1.011461099999999</v>
+        <v>1.001990686431583</v>
       </c>
       <c r="M14">
-        <v>0.9828084299999995</v>
+        <v>0.9970139834315797</v>
       </c>
       <c r="N14">
-        <v>0.9828084299999995</v>
+        <v>0.9970139834315797</v>
       </c>
       <c r="O14">
-        <v>0.9801341766666667</v>
+        <v>0.9965494901543863</v>
       </c>
       <c r="P14">
-        <v>0.9923593199999994</v>
+        <v>0.9986728844315808</v>
       </c>
       <c r="Q14">
-        <v>0.9923593199999994</v>
+        <v>0.9986728844315808</v>
       </c>
       <c r="R14">
-        <v>0.9971347649999993</v>
+        <v>0.9995023349315812</v>
       </c>
       <c r="S14">
-        <v>0.9971347649999993</v>
+        <v>0.9995023349315812</v>
       </c>
       <c r="T14">
-        <v>0.9989812549999996</v>
+        <v>0.9998230533368435</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0042979</v>
+        <v>0.998695330822546</v>
       </c>
       <c r="D15">
-        <v>1.0114611</v>
+        <v>0.9965208801138797</v>
       </c>
       <c r="E15">
-        <v>0.99054463</v>
+        <v>1.002870273343795</v>
       </c>
       <c r="F15">
-        <v>1.0042979</v>
+        <v>0.998695330822546</v>
       </c>
       <c r="G15">
-        <v>1.0042979</v>
+        <v>0.998695330822546</v>
       </c>
       <c r="H15">
-        <v>0.98280841</v>
+        <v>1.005218681497794</v>
       </c>
       <c r="I15">
-        <v>0.98280841</v>
+        <v>1.005218681497794</v>
       </c>
       <c r="J15">
-        <v>1.0042979</v>
+        <v>0.998695330822546</v>
       </c>
       <c r="K15">
-        <v>1.0042979</v>
+        <v>0.998695330822546</v>
       </c>
       <c r="L15">
-        <v>1.0042979</v>
+        <v>0.998695330822546</v>
       </c>
       <c r="M15">
-        <v>0.9935531550000001</v>
+        <v>1.00195700616017</v>
       </c>
       <c r="N15">
-        <v>0.9935531550000001</v>
+        <v>1.00195700616017</v>
       </c>
       <c r="O15">
-        <v>0.9925503133333334</v>
+        <v>1.002261428554712</v>
       </c>
       <c r="P15">
-        <v>0.9971347366666667</v>
+        <v>1.000869781047629</v>
       </c>
       <c r="Q15">
-        <v>0.9971347366666667</v>
+        <v>1.000869781047629</v>
       </c>
       <c r="R15">
-        <v>0.9989255275000001</v>
+        <v>1.000326168491358</v>
       </c>
       <c r="S15">
-        <v>0.9989255275000001</v>
+        <v>1.000326168491358</v>
       </c>
       <c r="T15">
-        <v>0.9996179733333334</v>
+        <v>1.000115971237185</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0042976</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="D16">
-        <v>1.0114603</v>
+        <v>1.030562799999999</v>
       </c>
       <c r="E16">
-        <v>0.9905452300000001</v>
+        <v>0.9747856700000013</v>
       </c>
       <c r="F16">
-        <v>1.0042976</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="G16">
-        <v>1.0042976</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="H16">
-        <v>0.9828095100000001</v>
+        <v>0.9541557599999997</v>
       </c>
       <c r="I16">
-        <v>0.9828095100000001</v>
+        <v>0.9541557599999997</v>
       </c>
       <c r="J16">
-        <v>1.0042976</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="K16">
-        <v>1.0042976</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="L16">
-        <v>1.0042976</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="M16">
-        <v>0.993553555</v>
+        <v>0.9828084299999995</v>
       </c>
       <c r="N16">
-        <v>0.993553555</v>
+        <v>0.9828084299999995</v>
       </c>
       <c r="O16">
-        <v>0.9925507800000001</v>
+        <v>0.9801341766666667</v>
       </c>
       <c r="P16">
-        <v>0.9971349033333333</v>
+        <v>0.9923593199999994</v>
       </c>
       <c r="Q16">
-        <v>0.9971349033333333</v>
+        <v>0.9923593199999994</v>
       </c>
       <c r="R16">
-        <v>0.9989255774999999</v>
+        <v>0.9971347649999993</v>
       </c>
       <c r="S16">
-        <v>0.9989255774999999</v>
+        <v>0.9971347649999993</v>
       </c>
       <c r="T16">
-        <v>0.9996179733333332</v>
+        <v>0.9989812549999996</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9966870399999999</v>
+        <v>1.0042979</v>
       </c>
       <c r="D17">
-        <v>0.9911654300000001</v>
+        <v>1.0114611</v>
       </c>
       <c r="E17">
-        <v>1.0072885</v>
+        <v>0.99054463</v>
       </c>
       <c r="F17">
-        <v>0.9966870399999999</v>
+        <v>1.0042979</v>
       </c>
       <c r="G17">
-        <v>0.9966870399999999</v>
+        <v>1.0042979</v>
       </c>
       <c r="H17">
-        <v>1.0132519</v>
+        <v>0.98280841</v>
       </c>
       <c r="I17">
-        <v>1.0132519</v>
+        <v>0.98280841</v>
       </c>
       <c r="J17">
-        <v>0.9966870399999999</v>
+        <v>1.0042979</v>
       </c>
       <c r="K17">
-        <v>0.9966870399999999</v>
+        <v>1.0042979</v>
       </c>
       <c r="L17">
-        <v>0.9966870399999999</v>
+        <v>1.0042979</v>
       </c>
       <c r="M17">
-        <v>1.00496947</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="N17">
-        <v>1.00496947</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="O17">
-        <v>1.00574248</v>
+        <v>0.9925503133333334</v>
       </c>
       <c r="P17">
-        <v>1.00220866</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="Q17">
-        <v>1.00220866</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="R17">
-        <v>1.000828255</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="S17">
-        <v>1.000828255</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="T17">
-        <v>1.000294491666667</v>
+        <v>0.9996179733333334</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.004297897260274</v>
+        <v>1.0042976</v>
       </c>
       <c r="D18">
-        <v>1.011461067123287</v>
+        <v>1.0114603</v>
       </c>
       <c r="E18">
-        <v>0.9905446256164382</v>
+        <v>0.9905452300000001</v>
       </c>
       <c r="F18">
-        <v>1.004297897260274</v>
+        <v>1.0042976</v>
       </c>
       <c r="G18">
-        <v>1.004297897260274</v>
+        <v>1.0042976</v>
       </c>
       <c r="H18">
-        <v>0.9828084100000002</v>
+        <v>0.9828095100000001</v>
       </c>
       <c r="I18">
-        <v>0.9828084100000002</v>
+        <v>0.9828095100000001</v>
       </c>
       <c r="J18">
-        <v>1.004297897260274</v>
+        <v>1.0042976</v>
       </c>
       <c r="K18">
-        <v>1.004297897260274</v>
+        <v>1.0042976</v>
       </c>
       <c r="L18">
-        <v>1.004297897260274</v>
+        <v>1.0042976</v>
       </c>
       <c r="M18">
-        <v>0.993553153630137</v>
+        <v>0.993553555</v>
       </c>
       <c r="N18">
-        <v>0.993553153630137</v>
+        <v>0.993553555</v>
       </c>
       <c r="O18">
-        <v>0.992550310958904</v>
+        <v>0.9925507800000001</v>
       </c>
       <c r="P18">
-        <v>0.9971347348401826</v>
+        <v>0.9971349033333333</v>
       </c>
       <c r="Q18">
-        <v>0.9971347348401826</v>
+        <v>0.9971349033333333</v>
       </c>
       <c r="R18">
-        <v>0.9989255254452054</v>
+        <v>0.9989255774999999</v>
       </c>
       <c r="S18">
-        <v>0.9989255254452054</v>
+        <v>0.9989255774999999</v>
       </c>
       <c r="T18">
-        <v>0.9996179657534245</v>
+        <v>0.9996179733333332</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.001941594736842</v>
+        <v>0.9966870399999999</v>
       </c>
       <c r="D19">
-        <v>1.005177570526316</v>
+        <v>0.9911654300000001</v>
       </c>
       <c r="E19">
-        <v>0.9957285084210525</v>
+        <v>1.0072885</v>
       </c>
       <c r="F19">
-        <v>1.001941594736842</v>
+        <v>0.9966870399999999</v>
       </c>
       <c r="G19">
-        <v>1.001941594736842</v>
+        <v>0.9966870399999999</v>
       </c>
       <c r="H19">
-        <v>0.992233654736842</v>
+        <v>1.0132519</v>
       </c>
       <c r="I19">
-        <v>0.992233654736842</v>
+        <v>1.0132519</v>
       </c>
       <c r="J19">
-        <v>1.001941594736842</v>
+        <v>0.9966870399999999</v>
       </c>
       <c r="K19">
-        <v>1.001941594736842</v>
+        <v>0.9966870399999999</v>
       </c>
       <c r="L19">
-        <v>1.001941594736842</v>
+        <v>0.9966870399999999</v>
       </c>
       <c r="M19">
-        <v>0.9970876247368421</v>
+        <v>1.00496947</v>
       </c>
       <c r="N19">
-        <v>0.9970876247368421</v>
+        <v>1.00496947</v>
       </c>
       <c r="O19">
-        <v>0.9966345859649123</v>
+        <v>1.00574248</v>
       </c>
       <c r="P19">
-        <v>0.9987056147368421</v>
+        <v>1.00220866</v>
       </c>
       <c r="Q19">
-        <v>0.9987056147368421</v>
+        <v>1.00220866</v>
       </c>
       <c r="R19">
-        <v>0.9995146097368421</v>
+        <v>1.000828255</v>
       </c>
       <c r="S19">
-        <v>0.9995146097368421</v>
+        <v>1.000828255</v>
       </c>
       <c r="T19">
-        <v>0.9998274196491228</v>
+        <v>1.000294491666667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.001941502105263</v>
+        <v>1.004297897260274</v>
       </c>
       <c r="D20">
-        <v>1.005177319473684</v>
+        <v>1.011461067123287</v>
       </c>
       <c r="E20">
-        <v>0.9957287047368423</v>
+        <v>0.9905446256164382</v>
       </c>
       <c r="F20">
-        <v>1.001941502105263</v>
+        <v>1.004297897260274</v>
       </c>
       <c r="G20">
-        <v>1.001941502105263</v>
+        <v>1.004297897260274</v>
       </c>
       <c r="H20">
-        <v>0.9922340194736842</v>
+        <v>0.9828084100000002</v>
       </c>
       <c r="I20">
-        <v>0.9922340194736842</v>
+        <v>0.9828084100000002</v>
       </c>
       <c r="J20">
-        <v>1.001941502105263</v>
+        <v>1.004297897260274</v>
       </c>
       <c r="K20">
-        <v>1.001941502105263</v>
+        <v>1.004297897260274</v>
       </c>
       <c r="L20">
-        <v>1.001941502105263</v>
+        <v>1.004297897260274</v>
       </c>
       <c r="M20">
-        <v>0.9970877607894735</v>
+        <v>0.993553153630137</v>
       </c>
       <c r="N20">
-        <v>0.9970877607894735</v>
+        <v>0.993553153630137</v>
       </c>
       <c r="O20">
-        <v>0.9966347421052631</v>
+        <v>0.992550310958904</v>
       </c>
       <c r="P20">
-        <v>0.9987056745614034</v>
+        <v>0.9971347348401826</v>
       </c>
       <c r="Q20">
-        <v>0.9987056745614034</v>
+        <v>0.9971347348401826</v>
       </c>
       <c r="R20">
-        <v>0.9995146314473682</v>
+        <v>0.9989255254452054</v>
       </c>
       <c r="S20">
-        <v>0.9995146314473682</v>
+        <v>0.9989255254452054</v>
       </c>
       <c r="T20">
-        <v>0.9998274249999999</v>
+        <v>0.9996179657534245</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9984981641398782</v>
+        <v>1.001941594736842</v>
       </c>
       <c r="D21">
-        <v>0.9959951328860016</v>
+        <v>1.005177570526316</v>
       </c>
       <c r="E21">
-        <v>1.003304018664318</v>
+        <v>0.9957285084210525</v>
       </c>
       <c r="F21">
-        <v>0.9984981641398782</v>
+        <v>1.001941594736842</v>
       </c>
       <c r="G21">
-        <v>0.9984981641398782</v>
+        <v>1.001941594736842</v>
       </c>
       <c r="H21">
-        <v>1.006007306339125</v>
+        <v>0.992233654736842</v>
       </c>
       <c r="I21">
-        <v>1.006007306339125</v>
+        <v>0.992233654736842</v>
       </c>
       <c r="J21">
-        <v>0.9984981641398782</v>
+        <v>1.001941594736842</v>
       </c>
       <c r="K21">
-        <v>0.9984981641398782</v>
+        <v>1.001941594736842</v>
       </c>
       <c r="L21">
-        <v>0.9984981641398782</v>
+        <v>1.001941594736842</v>
       </c>
       <c r="M21">
-        <v>1.002252735239502</v>
+        <v>0.9970876247368421</v>
       </c>
       <c r="N21">
-        <v>1.002252735239502</v>
+        <v>0.9970876247368421</v>
       </c>
       <c r="O21">
-        <v>1.002603163047774</v>
+        <v>0.9966345859649123</v>
       </c>
       <c r="P21">
-        <v>1.001001211539627</v>
+        <v>0.9987056147368421</v>
       </c>
       <c r="Q21">
-        <v>1.001001211539627</v>
+        <v>0.9987056147368421</v>
       </c>
       <c r="R21">
-        <v>1.00037544968969</v>
+        <v>0.9995146097368421</v>
       </c>
       <c r="S21">
-        <v>1.00037544968969</v>
+        <v>0.9995146097368421</v>
       </c>
       <c r="T21">
-        <v>1.00013349171818</v>
+        <v>0.9998274196491228</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9996122454127948</v>
+        <v>1.001941502105263</v>
       </c>
       <c r="D22">
-        <v>0.9989659978780547</v>
+        <v>1.005177319473684</v>
       </c>
       <c r="E22">
-        <v>1.00085305578587</v>
+        <v>0.9957287047368423</v>
       </c>
       <c r="F22">
-        <v>0.9996122454127948</v>
+        <v>1.001941502105263</v>
       </c>
       <c r="G22">
-        <v>0.9996122454127948</v>
+        <v>1.001941502105263</v>
       </c>
       <c r="H22">
-        <v>1.001551005564818</v>
+        <v>0.9922340194736842</v>
       </c>
       <c r="I22">
-        <v>1.001551005564818</v>
+        <v>0.9922340194736842</v>
       </c>
       <c r="J22">
-        <v>0.9996122454127948</v>
+        <v>1.001941502105263</v>
       </c>
       <c r="K22">
-        <v>0.9996122454127948</v>
+        <v>1.001941502105263</v>
       </c>
       <c r="L22">
-        <v>0.9996122454127948</v>
+        <v>1.001941502105263</v>
       </c>
       <c r="M22">
-        <v>1.000581625488806</v>
+        <v>0.9970877607894735</v>
       </c>
       <c r="N22">
-        <v>1.000581625488806</v>
+        <v>0.9970877607894735</v>
       </c>
       <c r="O22">
-        <v>1.000672102254494</v>
+        <v>0.9966347421052631</v>
       </c>
       <c r="P22">
-        <v>1.000258498796803</v>
+        <v>0.9987056745614034</v>
       </c>
       <c r="Q22">
-        <v>1.000258498796803</v>
+        <v>0.9987056745614034</v>
       </c>
       <c r="R22">
-        <v>1.000096935450801</v>
+        <v>0.9995146314473682</v>
       </c>
       <c r="S22">
-        <v>1.000096935450801</v>
+        <v>0.9995146314473682</v>
       </c>
       <c r="T22">
-        <v>1.000034465911188</v>
+        <v>0.9998274249999999</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9984980665675514</v>
+        <v>0.9984981641398782</v>
       </c>
       <c r="D23">
-        <v>0.995994846893131</v>
+        <v>0.9959951328860016</v>
       </c>
       <c r="E23">
-        <v>1.003304252380399</v>
+        <v>1.003304018664318</v>
       </c>
       <c r="F23">
-        <v>0.9984980665675514</v>
+        <v>0.9984981641398782</v>
       </c>
       <c r="G23">
-        <v>0.9984980665675514</v>
+        <v>0.9984981641398782</v>
       </c>
       <c r="H23">
-        <v>1.006007732561564</v>
+        <v>1.006007306339125</v>
       </c>
       <c r="I23">
-        <v>1.006007732561564</v>
+        <v>1.006007306339125</v>
       </c>
       <c r="J23">
-        <v>0.9984980665675514</v>
+        <v>0.9984981641398782</v>
       </c>
       <c r="K23">
-        <v>0.9984980665675514</v>
+        <v>0.9984981641398782</v>
       </c>
       <c r="L23">
-        <v>0.9984980665675514</v>
+        <v>0.9984981641398782</v>
       </c>
       <c r="M23">
-        <v>1.002252899564557</v>
+        <v>1.002252735239502</v>
       </c>
       <c r="N23">
-        <v>1.002252899564557</v>
+        <v>1.002252735239502</v>
       </c>
       <c r="O23">
-        <v>1.002603350503171</v>
+        <v>1.002603163047774</v>
       </c>
       <c r="P23">
-        <v>1.001001288565555</v>
+        <v>1.001001211539627</v>
       </c>
       <c r="Q23">
-        <v>1.001001288565555</v>
+        <v>1.001001211539627</v>
       </c>
       <c r="R23">
-        <v>1.000375483066054</v>
+        <v>1.00037544968969</v>
       </c>
       <c r="S23">
-        <v>1.000375483066054</v>
+        <v>1.00037544968969</v>
       </c>
       <c r="T23">
-        <v>1.000133505256291</v>
+        <v>1.00013349171818</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9996122236349583</v>
+        <v>0.9996122454127948</v>
       </c>
       <c r="D24">
-        <v>0.9989659182172428</v>
+        <v>0.9989659978780547</v>
       </c>
       <c r="E24">
-        <v>1.000853110027781</v>
+        <v>1.00085305578587</v>
       </c>
       <c r="F24">
-        <v>0.9996122236349583</v>
+        <v>0.9996122454127948</v>
       </c>
       <c r="G24">
-        <v>0.9996122236349583</v>
+        <v>0.9996122454127948</v>
       </c>
       <c r="H24">
-        <v>1.001551118814635</v>
+        <v>1.001551005564818</v>
       </c>
       <c r="I24">
-        <v>1.001551118814635</v>
+        <v>1.001551005564818</v>
       </c>
       <c r="J24">
-        <v>0.9996122236349583</v>
+        <v>0.9996122454127948</v>
       </c>
       <c r="K24">
-        <v>0.9996122236349583</v>
+        <v>0.9996122454127948</v>
       </c>
       <c r="L24">
-        <v>0.9996122236349583</v>
+        <v>0.9996122454127948</v>
       </c>
       <c r="M24">
-        <v>1.000581671224797</v>
+        <v>1.000581625488806</v>
       </c>
       <c r="N24">
-        <v>1.000581671224797</v>
+        <v>1.000581625488806</v>
       </c>
       <c r="O24">
-        <v>1.000672150825791</v>
+        <v>1.000672102254494</v>
       </c>
       <c r="P24">
-        <v>1.000258522028184</v>
+        <v>1.000258498796803</v>
       </c>
       <c r="Q24">
-        <v>1.000258522028184</v>
+        <v>1.000258498796803</v>
       </c>
       <c r="R24">
-        <v>1.000096947429878</v>
+        <v>1.000096935450801</v>
       </c>
       <c r="S24">
-        <v>1.000096947429878</v>
+        <v>1.000096935450801</v>
       </c>
       <c r="T24">
-        <v>1.000034469660756</v>
+        <v>1.000034465911188</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9984979121965397</v>
+        <v>0.9984980665675514</v>
       </c>
       <c r="D25">
-        <v>0.9959944294882275</v>
+        <v>0.995994846893131</v>
       </c>
       <c r="E25">
-        <v>1.003304584185431</v>
+        <v>1.003304252380399</v>
       </c>
       <c r="F25">
-        <v>0.9984979121965397</v>
+        <v>0.9984980665675514</v>
       </c>
       <c r="G25">
-        <v>0.9984979121965397</v>
+        <v>0.9984980665675514</v>
       </c>
       <c r="H25">
-        <v>1.006008349699427</v>
+        <v>1.006007732561564</v>
       </c>
       <c r="I25">
-        <v>1.006008349699427</v>
+        <v>1.006007732561564</v>
       </c>
       <c r="J25">
-        <v>0.9984979121965397</v>
+        <v>0.9984980665675514</v>
       </c>
       <c r="K25">
-        <v>0.9984979121965397</v>
+        <v>0.9984980665675514</v>
       </c>
       <c r="L25">
-        <v>0.9984979121965397</v>
+        <v>0.9984980665675514</v>
       </c>
       <c r="M25">
-        <v>1.002253130947983</v>
+        <v>1.002252899564557</v>
       </c>
       <c r="N25">
-        <v>1.002253130947983</v>
+        <v>1.002252899564557</v>
       </c>
       <c r="O25">
-        <v>1.002603615360466</v>
+        <v>1.002603350503171</v>
       </c>
       <c r="P25">
-        <v>1.001001391364169</v>
+        <v>1.001001288565555</v>
       </c>
       <c r="Q25">
-        <v>1.001001391364169</v>
+        <v>1.001001288565555</v>
       </c>
       <c r="R25">
-        <v>1.000375521572262</v>
+        <v>1.000375483066054</v>
       </c>
       <c r="S25">
-        <v>1.000375521572262</v>
+        <v>1.000375483066054</v>
       </c>
       <c r="T25">
-        <v>1.000133516660451</v>
+        <v>1.000133505256291</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9996121799737203</v>
+        <v>0.9996122236349583</v>
       </c>
       <c r="D26">
-        <v>0.9989658086527516</v>
+        <v>0.9989659182172428</v>
       </c>
       <c r="E26">
-        <v>1.000853207938217</v>
+        <v>1.000853110027781</v>
       </c>
       <c r="F26">
-        <v>0.9996121799737203</v>
+        <v>0.9996122236349583</v>
       </c>
       <c r="G26">
-        <v>0.9996121799737203</v>
+        <v>0.9996122236349583</v>
       </c>
       <c r="H26">
-        <v>1.001551287585155</v>
+        <v>1.001551118814635</v>
       </c>
       <c r="I26">
-        <v>1.001551287585155</v>
+        <v>1.001551118814635</v>
       </c>
       <c r="J26">
-        <v>0.9996121799737203</v>
+        <v>0.9996122236349583</v>
       </c>
       <c r="K26">
-        <v>0.9996121799737203</v>
+        <v>0.9996122236349583</v>
       </c>
       <c r="L26">
-        <v>0.9996121799737203</v>
+        <v>0.9996122236349583</v>
       </c>
       <c r="M26">
-        <v>1.000581733779438</v>
+        <v>1.000581671224797</v>
       </c>
       <c r="N26">
-        <v>1.000581733779438</v>
+        <v>1.000581671224797</v>
       </c>
       <c r="O26">
-        <v>1.000672225165697</v>
+        <v>1.000672150825791</v>
       </c>
       <c r="P26">
-        <v>1.000258549177532</v>
+        <v>1.000258522028184</v>
       </c>
       <c r="Q26">
-        <v>1.000258549177532</v>
+        <v>1.000258522028184</v>
       </c>
       <c r="R26">
-        <v>1.000096956876579</v>
+        <v>1.000096947429878</v>
       </c>
       <c r="S26">
-        <v>1.000096956876579</v>
+        <v>1.000096947429878</v>
       </c>
       <c r="T26">
-        <v>1.000034474016214</v>
+        <v>1.000034469660756</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.000683084663636</v>
+        <v>0.9984979121965397</v>
       </c>
       <c r="D27">
-        <v>1.001821539769471</v>
+        <v>0.9959944294882275</v>
       </c>
       <c r="E27">
-        <v>0.9984972263116271</v>
+        <v>1.003304584185431</v>
       </c>
       <c r="F27">
-        <v>1.000683084663636</v>
+        <v>0.9984979121965397</v>
       </c>
       <c r="G27">
-        <v>1.000683084663636</v>
+        <v>0.9984979121965397</v>
       </c>
       <c r="H27">
-        <v>0.9972676847071752</v>
+        <v>1.006008349699427</v>
       </c>
       <c r="I27">
-        <v>0.9972676847071752</v>
+        <v>1.006008349699427</v>
       </c>
       <c r="J27">
-        <v>1.000683084663636</v>
+        <v>0.9984979121965397</v>
       </c>
       <c r="K27">
-        <v>1.000683084663636</v>
+        <v>0.9984979121965397</v>
       </c>
       <c r="L27">
-        <v>1.000683084663636</v>
+        <v>0.9984979121965397</v>
       </c>
       <c r="M27">
-        <v>0.9989753846854055</v>
+        <v>1.002253130947983</v>
       </c>
       <c r="N27">
-        <v>0.9989753846854055</v>
+        <v>1.002253130947983</v>
       </c>
       <c r="O27">
-        <v>0.9988159985608127</v>
+        <v>1.002603615360466</v>
       </c>
       <c r="P27">
-        <v>0.9995446180114822</v>
+        <v>1.001001391364169</v>
       </c>
       <c r="Q27">
-        <v>0.9995446180114822</v>
+        <v>1.001001391364169</v>
       </c>
       <c r="R27">
-        <v>0.9998292346745206</v>
+        <v>1.000375521572262</v>
       </c>
       <c r="S27">
-        <v>0.9998292346745206</v>
+        <v>1.000375521572262</v>
       </c>
       <c r="T27">
-        <v>0.9999392841298634</v>
+        <v>1.000133516660451</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9998815122898956</v>
+        <v>0.9996121799737203</v>
       </c>
       <c r="D28">
-        <v>0.9996840048444549</v>
+        <v>0.9989658086527516</v>
       </c>
       <c r="E28">
-        <v>1.000260699731463</v>
+        <v>1.000853207938217</v>
       </c>
       <c r="F28">
-        <v>0.9998815122898956</v>
+        <v>0.9996121799737203</v>
       </c>
       <c r="G28">
-        <v>0.9998815122898956</v>
+        <v>0.9996121799737203</v>
       </c>
       <c r="H28">
-        <v>1.000473996338852</v>
+        <v>1.001551287585155</v>
       </c>
       <c r="I28">
-        <v>1.000473996338852</v>
+        <v>1.001551287585155</v>
       </c>
       <c r="J28">
-        <v>0.9998815122898956</v>
+        <v>0.9996121799737203</v>
       </c>
       <c r="K28">
-        <v>0.9998815122898956</v>
+        <v>0.9996121799737203</v>
       </c>
       <c r="L28">
-        <v>0.9998815122898956</v>
+        <v>0.9996121799737203</v>
       </c>
       <c r="M28">
-        <v>1.000177754314374</v>
+        <v>1.000581733779438</v>
       </c>
       <c r="N28">
-        <v>1.000177754314374</v>
+        <v>1.000581733779438</v>
       </c>
       <c r="O28">
-        <v>1.000205402786737</v>
+        <v>1.000672225165697</v>
       </c>
       <c r="P28">
-        <v>1.000079006972881</v>
+        <v>1.000258549177532</v>
       </c>
       <c r="Q28">
-        <v>1.000079006972881</v>
+        <v>1.000258549177532</v>
       </c>
       <c r="R28">
-        <v>1.000029633302135</v>
+        <v>1.000096956876579</v>
       </c>
       <c r="S28">
-        <v>1.000029633302135</v>
+        <v>1.000096956876579</v>
       </c>
       <c r="T28">
-        <v>1.000010539630743</v>
+        <v>1.000034474016214</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.000683084663636</v>
+      </c>
+      <c r="D29">
+        <v>1.001821539769471</v>
+      </c>
+      <c r="E29">
+        <v>0.9984972263116271</v>
+      </c>
+      <c r="F29">
+        <v>1.000683084663636</v>
+      </c>
+      <c r="G29">
+        <v>1.000683084663636</v>
+      </c>
+      <c r="H29">
+        <v>0.9972676847071752</v>
+      </c>
+      <c r="I29">
+        <v>0.9972676847071752</v>
+      </c>
+      <c r="J29">
+        <v>1.000683084663636</v>
+      </c>
+      <c r="K29">
+        <v>1.000683084663636</v>
+      </c>
+      <c r="L29">
+        <v>1.000683084663636</v>
+      </c>
+      <c r="M29">
+        <v>0.9989753846854055</v>
+      </c>
+      <c r="N29">
+        <v>0.9989753846854055</v>
+      </c>
+      <c r="O29">
+        <v>0.9988159985608127</v>
+      </c>
+      <c r="P29">
+        <v>0.9995446180114822</v>
+      </c>
+      <c r="Q29">
+        <v>0.9995446180114822</v>
+      </c>
+      <c r="R29">
+        <v>0.9998292346745206</v>
+      </c>
+      <c r="S29">
+        <v>0.9998292346745206</v>
+      </c>
+      <c r="T29">
+        <v>0.9999392841298634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9998815122898956</v>
+      </c>
+      <c r="D30">
+        <v>0.9996840048444549</v>
+      </c>
+      <c r="E30">
+        <v>1.000260699731463</v>
+      </c>
+      <c r="F30">
+        <v>0.9998815122898956</v>
+      </c>
+      <c r="G30">
+        <v>0.9998815122898956</v>
+      </c>
+      <c r="H30">
+        <v>1.000473996338852</v>
+      </c>
+      <c r="I30">
+        <v>1.000473996338852</v>
+      </c>
+      <c r="J30">
+        <v>0.9998815122898956</v>
+      </c>
+      <c r="K30">
+        <v>0.9998815122898956</v>
+      </c>
+      <c r="L30">
+        <v>0.9998815122898956</v>
+      </c>
+      <c r="M30">
+        <v>1.000177754314374</v>
+      </c>
+      <c r="N30">
+        <v>1.000177754314374</v>
+      </c>
+      <c r="O30">
+        <v>1.000205402786737</v>
+      </c>
+      <c r="P30">
+        <v>1.000079006972881</v>
+      </c>
+      <c r="Q30">
+        <v>1.000079006972881</v>
+      </c>
+      <c r="R30">
+        <v>1.000029633302135</v>
+      </c>
+      <c r="S30">
+        <v>1.000029633302135</v>
+      </c>
+      <c r="T30">
+        <v>1.000010539630743</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9977960775245921</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9941228420082292</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.00484865147597</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9977960775245921</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9977960775245921</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.008815735464564</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.008815735464564</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9977960775245921</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9977960775245921</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9977960775245921</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.003305906494578</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.003305906494578</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.003820154821709</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.001469296837916</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.001469296837916</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000550992009585</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.000550992009585</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000195910253757</v>
       </c>
     </row>
